--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_20_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_20_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>703474.2928456161</v>
+        <v>733671.9799030328</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1790467.545064538</v>
+        <v>1784511.217947469</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19042273.9649169</v>
+        <v>19042283.03931422</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6745474.509665078</v>
+        <v>6746623.038510369</v>
       </c>
     </row>
     <row r="11">
@@ -7985,10 +7987,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M2" t="n">
-        <v>94.50134181136147</v>
+        <v>95.70913181393388</v>
       </c>
       <c r="N2" t="n">
-        <v>89.2146190330682</v>
+        <v>90.44195234058779</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8061,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>42.27423123832551</v>
+        <v>43.07331968004391</v>
       </c>
       <c r="M3" t="n">
-        <v>20.73666047215158</v>
+        <v>21.66915899307011</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.9571789820313086</v>
       </c>
       <c r="O3" t="n">
-        <v>32.82469745261383</v>
+        <v>33.70032922107961</v>
       </c>
       <c r="P3" t="n">
-        <v>54.90492507792075</v>
+        <v>55.60769676917488</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8222,13 +8224,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>87.70217318086767</v>
+        <v>94.50134181136147</v>
       </c>
       <c r="N5" t="n">
-        <v>82.30543274582104</v>
+        <v>89.2146190330682</v>
       </c>
       <c r="O5" t="n">
-        <v>97.41850398649893</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P5" t="n">
         <v>83.66766412458549</v>
@@ -8298,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>37.77581921773398</v>
+        <v>42.27423123832551</v>
       </c>
       <c r="M6" t="n">
-        <v>15.48722582050885</v>
+        <v>20.73666047215158</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>27.89539017292432</v>
+        <v>32.82469745261383</v>
       </c>
       <c r="P6" t="n">
-        <v>50.94872141056362</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -9401,7 +9403,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>82.69308435253603</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L20" t="n">
         <v>48.07411698098349</v>
@@ -22559,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>22.20985652598358</v>
+        <v>22.21673494391485</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22796,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>22.17113495739464</v>
+        <v>22.20985652598358</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>22.05689605041565</v>
+        <v>22.05689605041567</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>66.86288983651983</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R20" t="n">
         <v>180.0906730958467</v>
@@ -24151,10 +24153,10 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K22" t="n">
-        <v>62.93345443721985</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L22" t="n">
-        <v>29.62548300147246</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M22" t="n">
         <v>24.54979951156312</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1154339.431969725</v>
+        <v>1154526.17053041</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1153339.170073736</v>
+        <v>1154339.431969725</v>
       </c>
     </row>
     <row r="4">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546846.590328696</v>
+        <v>546846.2755035073</v>
       </c>
       <c r="C2" t="n">
-        <v>546848.3626148903</v>
+        <v>546846.5903286961</v>
       </c>
       <c r="D2" t="n">
-        <v>546853.5913296626</v>
+        <v>546853.5913296627</v>
       </c>
       <c r="E2" t="n">
-        <v>183139.6229770187</v>
+        <v>183139.6229770186</v>
       </c>
       <c r="F2" t="n">
-        <v>183139.6229770187</v>
+        <v>183139.6229770186</v>
       </c>
       <c r="G2" t="n">
-        <v>183139.6229770187</v>
+        <v>183139.6229770186</v>
       </c>
       <c r="H2" t="n">
-        <v>183139.6229770187</v>
+        <v>183139.6229770186</v>
       </c>
       <c r="I2" t="n">
-        <v>183139.6229770187</v>
+        <v>183139.6229770186</v>
       </c>
       <c r="J2" t="n">
-        <v>183139.6229770187</v>
+        <v>183139.6229770186</v>
       </c>
       <c r="K2" t="n">
-        <v>183139.6229770187</v>
+        <v>183139.6229770186</v>
       </c>
       <c r="L2" t="n">
-        <v>183139.6229770187</v>
+        <v>183139.6229770186</v>
       </c>
       <c r="M2" t="n">
-        <v>183139.6229770187</v>
+        <v>183139.6229770186</v>
       </c>
       <c r="N2" t="n">
-        <v>183139.6229770187</v>
+        <v>183139.6229770186</v>
       </c>
       <c r="O2" t="n">
-        <v>183139.6229770187</v>
+        <v>183139.6229770186</v>
       </c>
       <c r="P2" t="n">
-        <v>183139.6229770187</v>
+        <v>183139.6229770186</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>330871.7541851042</v>
+        <v>329223.0061167778</v>
       </c>
       <c r="C3" t="n">
-        <v>8770.909527807677</v>
+        <v>1558.045904853998</v>
       </c>
       <c r="D3" t="n">
-        <v>24336.65507127577</v>
+        <v>32585.62631485736</v>
       </c>
       <c r="E3" t="n">
         <v>69352.80631588837</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>417860.3230835525</v>
+        <v>418430.1700736278</v>
       </c>
       <c r="C4" t="n">
-        <v>414775.5971137681</v>
+        <v>417860.3230835526</v>
       </c>
       <c r="D4" t="n">
         <v>405789.2563960744</v>
       </c>
       <c r="E4" t="n">
-        <v>19822.11383057335</v>
+        <v>19822.11383057336</v>
       </c>
       <c r="F4" t="n">
-        <v>19822.11383057335</v>
+        <v>19822.11383057336</v>
       </c>
       <c r="G4" t="n">
-        <v>19822.11383057335</v>
+        <v>19822.11383057336</v>
       </c>
       <c r="H4" t="n">
         <v>19822.11383057336</v>
       </c>
       <c r="I4" t="n">
-        <v>19822.11383057335</v>
+        <v>19822.11383057336</v>
       </c>
       <c r="J4" t="n">
-        <v>19822.11383057335</v>
+        <v>19822.11383057336</v>
       </c>
       <c r="K4" t="n">
-        <v>19822.11383057335</v>
+        <v>19822.11383057336</v>
       </c>
       <c r="L4" t="n">
-        <v>19822.11383057335</v>
+        <v>19822.11383057336</v>
       </c>
       <c r="M4" t="n">
-        <v>19822.11383057335</v>
+        <v>19822.11383057336</v>
       </c>
       <c r="N4" t="n">
-        <v>19822.11383057335</v>
+        <v>19822.11383057336</v>
       </c>
       <c r="O4" t="n">
-        <v>19822.11383057335</v>
+        <v>19822.11383057336</v>
       </c>
       <c r="P4" t="n">
-        <v>19822.11383057335</v>
+        <v>19822.11383057336</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>41075.67462471527</v>
+      </c>
+      <c r="C5" t="n">
         <v>41112.97456555201</v>
-      </c>
-      <c r="C5" t="n">
-        <v>41322.95195161772</v>
       </c>
       <c r="D5" t="n">
         <v>41942.44098443807</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-242998.4615055128</v>
+        <v>-241882.5753116135</v>
       </c>
       <c r="C6" t="n">
-        <v>81978.90402169677</v>
+        <v>86315.2467747375</v>
       </c>
       <c r="D6" t="n">
-        <v>74785.23887787432</v>
+        <v>66536.26763429289</v>
       </c>
       <c r="E6" t="n">
-        <v>83768.00283179314</v>
+        <v>83768.00283179304</v>
       </c>
       <c r="F6" t="n">
-        <v>153120.8091476815</v>
+        <v>153120.8091476814</v>
       </c>
       <c r="G6" t="n">
-        <v>153120.8091476815</v>
+        <v>153120.8091476814</v>
       </c>
       <c r="H6" t="n">
-        <v>153120.8091476815</v>
+        <v>153120.8091476814</v>
       </c>
       <c r="I6" t="n">
-        <v>153120.8091476815</v>
+        <v>153120.8091476814</v>
       </c>
       <c r="J6" t="n">
-        <v>153120.8091476815</v>
+        <v>153120.8091476814</v>
       </c>
       <c r="K6" t="n">
-        <v>153120.8091476815</v>
+        <v>153120.8091476814</v>
       </c>
       <c r="L6" t="n">
-        <v>153120.8091476815</v>
+        <v>153120.8091476814</v>
       </c>
       <c r="M6" t="n">
-        <v>153120.8091476815</v>
+        <v>153120.8091476814</v>
       </c>
       <c r="N6" t="n">
-        <v>153120.8091476815</v>
+        <v>153120.8091476814</v>
       </c>
       <c r="O6" t="n">
-        <v>153120.8091476815</v>
+        <v>153120.8091476814</v>
       </c>
       <c r="P6" t="n">
-        <v>153120.8091476815</v>
+        <v>153120.8091476814</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>341.6547992988656</v>
+      </c>
+      <c r="C3" t="n">
         <v>343.3658057592666</v>
-      </c>
-      <c r="C3" t="n">
-        <v>352.9977959457669</v>
       </c>
       <c r="D3" t="n">
         <v>381.4147240567924</v>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>343.3658057592666</v>
+        <v>341.6547992988656</v>
       </c>
       <c r="C3" t="n">
-        <v>9.631990186500444</v>
+        <v>1.71100646040092</v>
       </c>
       <c r="D3" t="n">
-        <v>28.41692811102547</v>
+        <v>38.04891829752592</v>
       </c>
       <c r="E3" t="n">
         <v>86.32380799659495</v>
@@ -27394,19 +27396,19 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>349.9597650259403</v>
+        <v>350.0302086235789</v>
       </c>
       <c r="I2" t="n">
-        <v>254.413627538865</v>
+        <v>254.6788077461599</v>
       </c>
       <c r="J2" t="n">
-        <v>103.6577574092157</v>
+        <v>104.241554533109</v>
       </c>
       <c r="K2" t="n">
-        <v>62.01598937483024</v>
+        <v>62.89094992975379</v>
       </c>
       <c r="L2" t="n">
-        <v>18.38450875428637</v>
+        <v>19.46997469197376</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27415,25 +27417,25 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.934605547775959</v>
+        <v>6.093541586991591</v>
       </c>
       <c r="P2" t="n">
-        <v>56.01237276874352</v>
+        <v>57.00149786528118</v>
       </c>
       <c r="Q2" t="n">
-        <v>120.8562777625268</v>
+        <v>121.5990695169012</v>
       </c>
       <c r="R2" t="n">
-        <v>211.4982239222711</v>
+        <v>211.9303003426456</v>
       </c>
       <c r="S2" t="n">
-        <v>235.9346815086628</v>
+        <v>236.0914234572714</v>
       </c>
       <c r="T2" t="n">
-        <v>219.4718503679457</v>
+        <v>219.5019606424398</v>
       </c>
       <c r="U2" t="n">
-        <v>248.7911763328777</v>
+        <v>248.7917266063122</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -27470,19 +27472,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0306354769367</v>
+        <v>161.0343157549836</v>
       </c>
       <c r="H3" t="n">
-        <v>137.9016867325838</v>
+        <v>137.937230470563</v>
       </c>
       <c r="I3" t="n">
-        <v>117.4902810648562</v>
+        <v>117.6169923923482</v>
       </c>
       <c r="J3" t="n">
-        <v>82.93859734111298</v>
+        <v>83.28630290869316</v>
       </c>
       <c r="K3" t="n">
-        <v>13.57083277636241</v>
+        <v>14.16511697308491</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27500,19 +27502,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.82666100818672</v>
+        <v>56.29644527255945</v>
       </c>
       <c r="R3" t="n">
-        <v>155.3651088272201</v>
+        <v>155.5936088975356</v>
       </c>
       <c r="S3" t="n">
-        <v>208.3135435403172</v>
+        <v>208.3819030908814</v>
       </c>
       <c r="T3" t="n">
-        <v>230.1584524961191</v>
+        <v>230.1732865992993</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6505853349712</v>
+        <v>249.6508274585269</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -27549,49 +27551,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.247518043053</v>
+        <v>169.250603464539</v>
       </c>
       <c r="H4" t="n">
-        <v>167.6944209426916</v>
+        <v>167.7218531446305</v>
       </c>
       <c r="I4" t="n">
-        <v>168.1305865516738</v>
+        <v>168.2233735905427</v>
       </c>
       <c r="J4" t="n">
-        <v>133.20905535072</v>
+        <v>133.427194649778</v>
       </c>
       <c r="K4" t="n">
-        <v>88.99056004441432</v>
+        <v>89.34902992251145</v>
       </c>
       <c r="L4" t="n">
-        <v>62.96960703121101</v>
+        <v>63.42832505831589</v>
       </c>
       <c r="M4" t="n">
-        <v>59.70650310975206</v>
+        <v>60.19015695232082</v>
       </c>
       <c r="N4" t="n">
-        <v>47.31542685419204</v>
+        <v>47.78758048940401</v>
       </c>
       <c r="O4" t="n">
-        <v>72.58297639552539</v>
+        <v>73.019086697924</v>
       </c>
       <c r="P4" t="n">
-        <v>91.43798011889523</v>
+        <v>91.81114782298006</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.7386590351999</v>
+        <v>152.9970210107205</v>
       </c>
       <c r="R4" t="n">
-        <v>221.644124959155</v>
+        <v>221.7828567288786</v>
       </c>
       <c r="S4" t="n">
-        <v>243.9209403175845</v>
+        <v>243.9747107992991</v>
       </c>
       <c r="T4" t="n">
-        <v>218.1427676199599</v>
+        <v>218.1559507844908</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2204648267885</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -27631,19 +27633,19 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>349.5632077616288</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I5" t="n">
-        <v>252.9208142658397</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J5" t="n">
-        <v>100.3713126771896</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K5" t="n">
-        <v>57.09046064443405</v>
+        <v>62.01598937483024</v>
       </c>
       <c r="L5" t="n">
-        <v>12.27395481918626</v>
+        <v>18.38450875428637</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -27652,25 +27654,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>4.934605547775959</v>
       </c>
       <c r="P5" t="n">
-        <v>50.44416280369231</v>
+        <v>56.01237276874352</v>
       </c>
       <c r="Q5" t="n">
-        <v>116.6747839725672</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R5" t="n">
-        <v>209.0658801893956</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S5" t="n">
-        <v>235.0523137644422</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T5" t="n">
-        <v>219.3023467014476</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U5" t="n">
-        <v>248.7880786073906</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -27707,19 +27709,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.0099176112525</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H6" t="n">
-        <v>137.701595766634</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I6" t="n">
-        <v>116.7769685840635</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J6" t="n">
-        <v>80.98121337311861</v>
+        <v>82.93859734111298</v>
       </c>
       <c r="K6" t="n">
-        <v>10.2253518075286</v>
+        <v>13.57083277636241</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -27737,19 +27739,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.18204362716871</v>
+        <v>55.82666100818672</v>
       </c>
       <c r="R6" t="n">
-        <v>154.0787837981626</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S6" t="n">
-        <v>207.928718272017</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T6" t="n">
-        <v>230.0749449585587</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6492223174919</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -27786,49 +27788,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.2301488804216</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H7" t="n">
-        <v>167.5399932967506</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I7" t="n">
-        <v>167.6082484609042</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J7" t="n">
-        <v>131.9810555526804</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K7" t="n">
-        <v>86.97257914960325</v>
+        <v>88.99056004441432</v>
       </c>
       <c r="L7" t="n">
-        <v>60.38728625235809</v>
+        <v>62.96960703121101</v>
       </c>
       <c r="M7" t="n">
-        <v>56.98380791654179</v>
+        <v>59.70650310975206</v>
       </c>
       <c r="N7" t="n">
-        <v>44.65747126715333</v>
+        <v>47.31542685419204</v>
       </c>
       <c r="O7" t="n">
-        <v>70.12792420831707</v>
+        <v>72.58297639552539</v>
       </c>
       <c r="P7" t="n">
-        <v>89.33725884936734</v>
+        <v>91.43798011889523</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.2842285170384</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R7" t="n">
-        <v>220.8631442466561</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S7" t="n">
-        <v>243.6182431833629</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T7" t="n">
-        <v>218.0685539250803</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2193491222004</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.380365048278458</v>
+        <v>1.373486630347197</v>
       </c>
       <c r="H2" t="n">
-        <v>14.13666355068176</v>
+        <v>14.06621995304324</v>
       </c>
       <c r="I2" t="n">
-        <v>53.21652352375528</v>
+        <v>52.95134331646037</v>
       </c>
       <c r="J2" t="n">
-        <v>117.1567580163238</v>
+        <v>116.5729608924305</v>
       </c>
       <c r="K2" t="n">
-        <v>175.587610509951</v>
+        <v>174.7126499550274</v>
       </c>
       <c r="L2" t="n">
-        <v>217.8319573562029</v>
+        <v>216.7464914185155</v>
       </c>
       <c r="M2" t="n">
-        <v>242.3800242835249</v>
+        <v>241.1722342809525</v>
       </c>
       <c r="N2" t="n">
-        <v>246.301986476946</v>
+        <v>245.0746531694265</v>
       </c>
       <c r="O2" t="n">
-        <v>232.5759815281271</v>
+        <v>231.4170454889115</v>
       </c>
       <c r="P2" t="n">
-        <v>198.4982193987527</v>
+        <v>197.509094302215</v>
       </c>
       <c r="Q2" t="n">
-        <v>149.0638961072804</v>
+        <v>148.321104352906</v>
       </c>
       <c r="R2" t="n">
-        <v>86.70935596392172</v>
+        <v>86.27727954354719</v>
       </c>
       <c r="S2" t="n">
-        <v>31.45506853764538</v>
+        <v>31.29832658903679</v>
       </c>
       <c r="T2" t="n">
-        <v>6.04254799883895</v>
+        <v>6.012437724344859</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.1098789304277757</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7385604123878564</v>
+        <v>0.7348801343409561</v>
       </c>
       <c r="H3" t="n">
-        <v>7.132938719640613</v>
+        <v>7.09739498166134</v>
       </c>
       <c r="I3" t="n">
-        <v>25.42850542651172</v>
+        <v>25.30179409901977</v>
       </c>
       <c r="J3" t="n">
-        <v>69.77776247038078</v>
+        <v>69.4300569028006</v>
       </c>
       <c r="K3" t="n">
-        <v>119.2613101003672</v>
+        <v>118.6670259036447</v>
       </c>
       <c r="L3" t="n">
-        <v>160.3615491897405</v>
+        <v>159.5624607480221</v>
       </c>
       <c r="M3" t="n">
-        <v>187.1343641388002</v>
+        <v>186.2018656178817</v>
       </c>
       <c r="N3" t="n">
-        <v>192.087253921875</v>
+        <v>191.1300749398437</v>
       </c>
       <c r="O3" t="n">
-        <v>175.7223100473861</v>
+        <v>174.8466782789204</v>
       </c>
       <c r="P3" t="n">
-        <v>141.0326457655372</v>
+        <v>140.3298740742831</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.276588781299</v>
+        <v>93.80680451692626</v>
       </c>
       <c r="R3" t="n">
-        <v>45.85553156913376</v>
+        <v>45.62703149881833</v>
       </c>
       <c r="S3" t="n">
-        <v>13.71843573009899</v>
+        <v>13.65007617953485</v>
       </c>
       <c r="T3" t="n">
-        <v>2.976916749931753</v>
+        <v>2.962082646751484</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04858950081499057</v>
+        <v>0.04834737725927345</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6191842398937593</v>
+        <v>0.6160988184077902</v>
       </c>
       <c r="H4" t="n">
-        <v>5.505110787419063</v>
+        <v>5.477678585480175</v>
       </c>
       <c r="I4" t="n">
-        <v>18.62055877789597</v>
+        <v>18.52777173902701</v>
       </c>
       <c r="J4" t="n">
-        <v>43.77632576048878</v>
+        <v>43.55818646143077</v>
       </c>
       <c r="K4" t="n">
-        <v>71.93795078038401</v>
+        <v>71.57948090228689</v>
       </c>
       <c r="L4" t="n">
-        <v>92.05580962929582</v>
+        <v>91.59709160219094</v>
       </c>
       <c r="M4" t="n">
-        <v>97.05994407716445</v>
+        <v>96.57629023459569</v>
       </c>
       <c r="N4" t="n">
-        <v>94.75207554665143</v>
+        <v>94.27992191143946</v>
       </c>
       <c r="O4" t="n">
-        <v>87.51887783516521</v>
+        <v>87.08276753276661</v>
       </c>
       <c r="P4" t="n">
-        <v>74.88751934133246</v>
+        <v>74.51435163724763</v>
       </c>
       <c r="Q4" t="n">
-        <v>51.84823666964925</v>
+        <v>51.5898746941287</v>
       </c>
       <c r="R4" t="n">
-        <v>27.84077500467757</v>
+        <v>27.70204323495391</v>
       </c>
       <c r="S4" t="n">
-        <v>10.7906926170576</v>
+        <v>10.73692213534303</v>
       </c>
       <c r="T4" t="n">
-        <v>2.645605388636971</v>
+        <v>2.632422224106012</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.03360539009497042</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.419086616867404</v>
+        <v>1.380365048278458</v>
       </c>
       <c r="H5" t="n">
-        <v>14.5332208149933</v>
+        <v>14.13666355068176</v>
       </c>
       <c r="I5" t="n">
-        <v>54.70933679678063</v>
+        <v>53.21652352375528</v>
       </c>
       <c r="J5" t="n">
-        <v>120.4432027483499</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K5" t="n">
-        <v>180.5131392403472</v>
+        <v>175.587610509951</v>
       </c>
       <c r="L5" t="n">
-        <v>223.942511291303</v>
+        <v>217.8319573562029</v>
       </c>
       <c r="M5" t="n">
-        <v>249.1791929140187</v>
+        <v>242.3800242835249</v>
       </c>
       <c r="N5" t="n">
-        <v>253.2111727641932</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O5" t="n">
-        <v>239.1001302177179</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P5" t="n">
-        <v>204.0664293638039</v>
+        <v>198.4982193987527</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.24538989724</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R5" t="n">
-        <v>89.14169969679713</v>
+        <v>86.70935596392172</v>
       </c>
       <c r="S5" t="n">
-        <v>32.337436281866</v>
+        <v>31.45506853764538</v>
       </c>
       <c r="T5" t="n">
-        <v>6.212051665337063</v>
+        <v>6.04254799883895</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1135269293493923</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7592782780720271</v>
+        <v>0.7385604123878564</v>
       </c>
       <c r="H6" t="n">
-        <v>7.333029685590367</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I6" t="n">
-        <v>26.14181790730444</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J6" t="n">
-        <v>71.73514643837515</v>
+        <v>69.77776247038078</v>
       </c>
       <c r="K6" t="n">
-        <v>122.606791069201</v>
+        <v>119.2613101003672</v>
       </c>
       <c r="L6" t="n">
-        <v>164.859961210332</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M6" t="n">
-        <v>192.383798790443</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N6" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O6" t="n">
-        <v>180.6516173270757</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P6" t="n">
-        <v>144.9888494328944</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.92120616231701</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R6" t="n">
-        <v>47.14185659819131</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S6" t="n">
-        <v>14.10326099839926</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T6" t="n">
-        <v>3.060424287492073</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04995251829421232</v>
+        <v>0.04858950081499057</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6365534025251535</v>
+        <v>0.6191842398937593</v>
       </c>
       <c r="H7" t="n">
-        <v>5.659538433360004</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I7" t="n">
-        <v>19.14289686866553</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J7" t="n">
-        <v>45.00432555852834</v>
+        <v>43.77632576048878</v>
       </c>
       <c r="K7" t="n">
-        <v>73.95593167519509</v>
+        <v>71.93795078038401</v>
       </c>
       <c r="L7" t="n">
-        <v>94.63813040814874</v>
+        <v>92.05580962929582</v>
       </c>
       <c r="M7" t="n">
-        <v>99.78263927037472</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N7" t="n">
-        <v>97.41003113369014</v>
+        <v>94.75207554665143</v>
       </c>
       <c r="O7" t="n">
-        <v>89.97393002237354</v>
+        <v>87.51887783516521</v>
       </c>
       <c r="P7" t="n">
-        <v>76.98824061086034</v>
+        <v>74.88751934133246</v>
       </c>
       <c r="Q7" t="n">
-        <v>53.3026671878108</v>
+        <v>51.84823666964925</v>
       </c>
       <c r="R7" t="n">
-        <v>28.62175571717644</v>
+        <v>27.84077500467757</v>
       </c>
       <c r="S7" t="n">
-        <v>11.09338975127926</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T7" t="n">
-        <v>2.719819083516564</v>
+        <v>2.645605388636971</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03472109468319023</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32491,7 +32493,7 @@
         <v>270.397529979667</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.0572840332873</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R20" t="n">
         <v>118.1169067903461</v>
@@ -32500,7 +32502,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T20" t="n">
-        <v>8.23125798618574</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U20" t="n">
         <v>0.1504284726201847</v>
@@ -32582,7 +32584,7 @@
         <v>4.055204820349649</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06618941491321521</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,7 +32624,7 @@
         <v>0.8434629266536492</v>
       </c>
       <c r="H22" t="n">
-        <v>7.499152202429724</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I22" t="n">
         <v>25.36523055791157</v>
@@ -32631,7 +32633,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K22" t="n">
-        <v>97.99505638757849</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L22" t="n">
         <v>125.3999336590344</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_20_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_20_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>733671.9799030328</v>
+        <v>643794.5985472834</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1784511.217947469</v>
+        <v>1798460.734225487</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19042283.03931422</v>
+        <v>18947942.59990024</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6746623.038510369</v>
+        <v>6776191.801504643</v>
       </c>
     </row>
     <row r="11">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.818249129315497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
     </row>
     <row r="24">
@@ -2450,16 +2450,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>4.818249129315497</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>4.818249129315497</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2639,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>4.818249129315497</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>4.818249129315497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>4.818249129315497</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2924,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>4.818249129315497</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3152,10 +3152,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3167,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>4.818249129315497</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>4.818249129315509</v>
       </c>
     </row>
     <row r="36">
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>4.818249129315509</v>
       </c>
     </row>
     <row r="37">
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>4.818249129315509</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>4.818249129315509</v>
       </c>
     </row>
     <row r="40">
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>4.818249129315509</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
     </row>
     <row r="42">
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>4.818249129315509</v>
       </c>
     </row>
     <row r="43">
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>4.818249129315509</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4021,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4115,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>4.818249129315509</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>5.963190557203838</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>5.963190557203838</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>5.853231798782454</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>11.26883879017931</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>16.68444578157616</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>17.01432205684031</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>17.01432205684031</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>17.01432205684031</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>17.01432205684031</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>11.48875630702207</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>11.48875630702207</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>11.48875630702207</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>5.963190557203838</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.634419395089654</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>11.0500263864865</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>16.46563337788335</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>16.35567461946197</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>10.83010886964373</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>5.3045431198255</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>5.963190557203838</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>5.853231798782454</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>5.853231798782454</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>11.0500263864865</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>16.46563337788335</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>17.01432205684031</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>11.48875630702207</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>5.963190557203838</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>5.963190557203838</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>5.963190557203838</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>10.83010886964373</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>10.83010886964373</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>5.963190557203838</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>5.963190557203838</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>5.634419395089654</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>11.0500263864865</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>16.46563337788335</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>16.35567461946197</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>10.83010886964373</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>10.83010886964373</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>10.83010886964373</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>10.83010886964373</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>10.83010886964373</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>10.83010886964373</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>10.83010886964373</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>5.3045431198255</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5.853231798782454</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>5.853231798782454</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>5.853231798782454</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>11.26883879017931</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>16.46563337788335</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>16.35567461946197</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>16.35567461946197</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>16.35567461946197</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>10.83010886964373</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>10.83010886964373</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>10.83010886964373</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>10.83010886964373</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>10.83010886964373</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>5.3045431198255</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>5.3045431198255</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>5.3045431198255</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>5.3045431198255</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>5.3045431198255</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>5.634419395089654</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>11.0500263864865</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>16.46563337788335</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>16.35567461946197</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>10.83010886964373</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>5.3045431198255</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>5.3045431198255</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>5.3045431198255</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>5.3045431198255</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>11.48875630702207</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>11.48875630702207</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>11.48875630702207</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>11.48875630702207</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.963190557203838</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>5.634419395089654</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>11.0500263864865</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>16.46563337788335</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>16.46563337788335</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>17.01432205684031</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>11.48875630702207</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>11.48875630702207</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>11.48875630702207</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>11.48875630702207</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>11.48875630702207</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>11.48875630702207</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>11.48875630702207</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>11.48875630702207</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>5.853231798782454</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>11.26883879017931</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>16.68444578157616</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>21.8812403692802</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>16.35567461946197</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.83010886964373</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>10.83010886964373</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>10.83010886964373</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>10.83010886964373</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>5.963190557203838</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>0.4376248073856041</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>11.4887563070221</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>11.4887563070221</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>11.4887563070221</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>11.4887563070221</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.96319055720385</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>5.634419395089662</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>11.05002638648652</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>16.46563337788339</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>11.4887563070221</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>5.634419395089662</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>11.05002638648652</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>16.46563337788339</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>10.83010886964376</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>5.304543119825514</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>5.304543119825514</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>11.4887563070221</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.96319055720385</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>5.853231798782467</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>11.05002638648652</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>16.46563337788339</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>5.634419395089662</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>11.05002638648652</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>16.46563337788339</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>10.83010886964376</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>5.304543119825514</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>5.304543119825514</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5.853231798782467</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>11.26883879017933</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>16.46563337788339</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>11.4887563070221</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>11.4887563070221</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>5.96319055720385</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>5.853231798782467</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>11.26883879017933</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>16.68444578157619</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>10.83010886964376</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>5.304543119825514</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>5.304543119825514</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>5.304543119825514</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>5.304543119825514</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>5.304543119825514</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>5.634419395089662</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>11.05002638648652</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>16.46563337788339</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>10.83010886964376</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>5.304543119825514</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>5.304543119825514</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>5.304543119825514</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>5.304543119825514</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>5.304543119825514</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>5.304543119825514</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>5.304543119825514</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>5.634419395089662</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>11.05002638648652</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>16.46563337788339</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>21.88124036928025</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>16.355674619462</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>10.83010886964376</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>5.304543119825514</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>0.437624807385605</v>
       </c>
     </row>
   </sheetData>
@@ -7987,10 +7987,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M2" t="n">
-        <v>95.70913181393388</v>
+        <v>116.8735187081365</v>
       </c>
       <c r="N2" t="n">
-        <v>90.44195234058779</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8063,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>43.07331968004391</v>
+        <v>58.22273991262165</v>
       </c>
       <c r="M3" t="n">
-        <v>21.66915899307011</v>
+        <v>39.34781785249876</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9571789820313086</v>
+        <v>19.10373933697781</v>
       </c>
       <c r="O3" t="n">
-        <v>33.70032922107961</v>
+        <v>50.30088672752632</v>
       </c>
       <c r="P3" t="n">
-        <v>55.60769676917488</v>
+        <v>68.93110769910051</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8458,16 +8458,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L8" t="n">
-        <v>102.8381142892153</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>67.64282070579191</v>
+        <v>74.04503350661622</v>
       </c>
       <c r="N8" t="n">
-        <v>61.92149897629116</v>
+        <v>68.42730627354024</v>
       </c>
       <c r="O8" t="n">
-        <v>78.17053334824146</v>
+        <v>84.31378269605858</v>
       </c>
       <c r="P8" t="n">
         <v>83.66766412458549</v>
@@ -8537,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>24.50430953720272</v>
+        <v>28.74009079028824</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>4.94295693345623</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>13.35262508576585</v>
+        <v>17.99414464209616</v>
       </c>
       <c r="P9" t="n">
-        <v>39.27687031530112</v>
+        <v>43.00209896284861</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8692,22 +8692,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>82.693084352536</v>
+        <v>78.79332417764658</v>
       </c>
       <c r="L11" t="n">
-        <v>48.07411698098349</v>
+        <v>43.23611964364983</v>
       </c>
       <c r="M11" t="n">
-        <v>6.707321807773383</v>
+        <v>1.324117587700869</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>19.69981775191468</v>
+        <v>14.53435905146836</v>
       </c>
       <c r="P11" t="n">
-        <v>67.78072631241469</v>
+        <v>63.37212681869443</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8771,7 +8771,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>39.13339190934374</v>
+        <v>36.4846258250864</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.820587744020429</v>
+        <v>0.6882853354483984</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8929,22 +8929,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>82.693084352536</v>
+        <v>78.79332417764658</v>
       </c>
       <c r="L14" t="n">
-        <v>48.07411698098349</v>
+        <v>43.23611964364983</v>
       </c>
       <c r="M14" t="n">
-        <v>6.707321807773383</v>
+        <v>1.324117587700869</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>19.69981775191468</v>
+        <v>14.53435905146836</v>
       </c>
       <c r="P14" t="n">
-        <v>67.78072631241469</v>
+        <v>63.37212681869443</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9008,7 +9008,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>39.13339190934374</v>
+        <v>36.4846258250864</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.820587744020429</v>
+        <v>0.6882853354483984</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9166,22 +9166,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>82.693084352536</v>
+        <v>78.79332417764658</v>
       </c>
       <c r="L17" t="n">
-        <v>48.07411698098349</v>
+        <v>43.23611964364983</v>
       </c>
       <c r="M17" t="n">
-        <v>6.707321807773383</v>
+        <v>1.324117587700869</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>19.69981775191468</v>
+        <v>14.53435905146836</v>
       </c>
       <c r="P17" t="n">
-        <v>67.78072631241469</v>
+        <v>63.37212681869443</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9245,7 +9245,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>39.13339190934374</v>
+        <v>36.4846258250864</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.820587744020429</v>
+        <v>0.6882853354483984</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9403,22 +9403,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>82.693084352536</v>
+        <v>78.79332417764658</v>
       </c>
       <c r="L20" t="n">
-        <v>48.07411698098349</v>
+        <v>43.23611964364983</v>
       </c>
       <c r="M20" t="n">
-        <v>6.707321807773383</v>
+        <v>1.324117587700869</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>19.69981775191468</v>
+        <v>14.53435905146836</v>
       </c>
       <c r="P20" t="n">
-        <v>67.78072631241469</v>
+        <v>63.37212681869443</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9482,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>39.13339190934374</v>
+        <v>36.4846258250864</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3.820587744020429</v>
+        <v>0.6882853354483984</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9640,22 +9640,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>82.693084352536</v>
+        <v>78.79332417764658</v>
       </c>
       <c r="L23" t="n">
-        <v>48.07411698098349</v>
+        <v>48.70642973596988</v>
       </c>
       <c r="M23" t="n">
-        <v>6.707321807773383</v>
+        <v>6.794427680020919</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>19.69981775191468</v>
+        <v>19.78364651379568</v>
       </c>
       <c r="P23" t="n">
-        <v>67.78072631241469</v>
+        <v>63.37212681869443</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9719,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>39.13339190934374</v>
+        <v>36.4846258250864</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>3.820587744020429</v>
+        <v>0.6882853354483984</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9877,22 +9877,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>82.693084352536</v>
+        <v>84.26363426996663</v>
       </c>
       <c r="L26" t="n">
-        <v>48.07411698098349</v>
+        <v>43.23611964364983</v>
       </c>
       <c r="M26" t="n">
-        <v>6.707321807773383</v>
+        <v>6.573405050028192</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>19.69981775191468</v>
+        <v>20.00466914378842</v>
       </c>
       <c r="P26" t="n">
-        <v>67.78072631241469</v>
+        <v>63.37212681869443</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9956,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>39.13339190934374</v>
+        <v>36.4846258250864</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>3.820587744020429</v>
+        <v>0.6882853354483984</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10114,22 +10114,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>82.693084352536</v>
+        <v>84.26363426996663</v>
       </c>
       <c r="L29" t="n">
-        <v>48.07411698098349</v>
+        <v>43.23611964364983</v>
       </c>
       <c r="M29" t="n">
-        <v>6.707321807773383</v>
+        <v>1.324117587700869</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>19.69981775191468</v>
+        <v>19.78364651379568</v>
       </c>
       <c r="P29" t="n">
-        <v>67.78072631241469</v>
+        <v>68.84243691101449</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10193,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>39.13339190934374</v>
+        <v>36.4846258250864</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3.820587744020429</v>
+        <v>0.6882853354483984</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10351,22 +10351,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>82.693084352536</v>
+        <v>78.79332417764658</v>
       </c>
       <c r="L32" t="n">
-        <v>48.07411698098349</v>
+        <v>48.48540710597715</v>
       </c>
       <c r="M32" t="n">
-        <v>6.707321807773383</v>
+        <v>6.794427680020931</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>19.69981775191468</v>
+        <v>14.53435905146836</v>
       </c>
       <c r="P32" t="n">
-        <v>67.78072631241469</v>
+        <v>68.84243691101449</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10430,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>39.13339190934374</v>
+        <v>36.4846258250864</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>3.820587744020429</v>
+        <v>0.6882853354483984</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10588,22 +10588,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>82.693084352536</v>
+        <v>78.79332417764658</v>
       </c>
       <c r="L35" t="n">
-        <v>48.07411698098349</v>
+        <v>43.23611964364983</v>
       </c>
       <c r="M35" t="n">
-        <v>6.707321807773383</v>
+        <v>6.573405050028199</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>19.69981775191468</v>
+        <v>20.00466914378842</v>
       </c>
       <c r="P35" t="n">
-        <v>67.78072631241469</v>
+        <v>68.84243691101449</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10667,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>39.13339190934374</v>
+        <v>36.4846258250864</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>3.820587744020429</v>
+        <v>0.6882853354483984</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10825,22 +10825,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>82.693084352536</v>
+        <v>78.79332417764658</v>
       </c>
       <c r="L38" t="n">
-        <v>48.07411698098349</v>
+        <v>48.70642973596989</v>
       </c>
       <c r="M38" t="n">
-        <v>6.707321807773383</v>
+        <v>6.573405050028199</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>19.69981775191468</v>
+        <v>20.00466914378842</v>
       </c>
       <c r="P38" t="n">
-        <v>67.78072631241469</v>
+        <v>63.37212681869443</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10904,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>39.13339190934374</v>
+        <v>36.4846258250864</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>3.820587744020429</v>
+        <v>0.6882853354483984</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11062,22 +11062,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>82.693084352536</v>
+        <v>84.26363426996664</v>
       </c>
       <c r="L41" t="n">
-        <v>48.07411698098349</v>
+        <v>48.70642973596989</v>
       </c>
       <c r="M41" t="n">
-        <v>6.707321807773383</v>
+        <v>6.573405050028199</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>19.69981775191468</v>
+        <v>14.53435905146836</v>
       </c>
       <c r="P41" t="n">
-        <v>67.78072631241469</v>
+        <v>63.37212681869443</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11141,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>39.13339190934374</v>
+        <v>36.4846258250864</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>3.820587744020429</v>
+        <v>0.6882853354483984</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11299,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>82.693084352536</v>
+        <v>78.79332417764658</v>
       </c>
       <c r="L44" t="n">
-        <v>48.07411698098349</v>
+        <v>48.48540710597716</v>
       </c>
       <c r="M44" t="n">
-        <v>6.707321807773383</v>
+        <v>6.794427680020931</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>19.69981775191468</v>
+        <v>20.00466914378842</v>
       </c>
       <c r="P44" t="n">
-        <v>67.78072631241469</v>
+        <v>63.37212681869443</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11378,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>39.13339190934374</v>
+        <v>36.4846258250864</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>3.820587744020429</v>
+        <v>0.6882853354483984</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>22.21673494391485</v>
+        <v>22.34713858678555</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>22.20985652598358</v>
+        <v>22.20985652598359</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>22.05689605041567</v>
+        <v>22.09335693785066</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23272,16 +23272,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6792080783892</v>
       </c>
       <c r="H11" t="n">
-        <v>344.8392336363538</v>
+        <v>344.5252616120142</v>
       </c>
       <c r="I11" t="n">
-        <v>235.1377299289993</v>
+        <v>233.9558032629818</v>
       </c>
       <c r="J11" t="n">
-        <v>61.2216581999468</v>
+        <v>58.61963373020026</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>66.8628898365198</v>
+        <v>63.55221521736678</v>
       </c>
       <c r="R11" t="n">
-        <v>180.0906730958467</v>
+        <v>178.1648783760692</v>
       </c>
       <c r="S11" t="n">
-        <v>224.5411397984024</v>
+        <v>223.8425300091053</v>
       </c>
       <c r="T11" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1489367886012</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7487244570701</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23351,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7467135268865</v>
       </c>
       <c r="H12" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1595984255204</v>
       </c>
       <c r="I12" t="n">
-        <v>108.279659353452</v>
+        <v>107.7148981354977</v>
       </c>
       <c r="J12" t="n">
-        <v>57.66394736845585</v>
+        <v>56.11419941992698</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>21.67813434720469</v>
+        <v>19.58427313862643</v>
       </c>
       <c r="R12" t="n">
-        <v>138.7554832289223</v>
+        <v>137.7370424898955</v>
       </c>
       <c r="S12" t="n">
-        <v>203.3445011265852</v>
+        <v>203.0398178453067</v>
       </c>
       <c r="T12" t="n">
-        <v>229.0801644257012</v>
+        <v>229.0140477939432</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6329854208729</v>
+        <v>249.63190625931</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23430,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0094874176874</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5781122917138</v>
       </c>
       <c r="I13" t="n">
-        <v>161.3859147716582</v>
+        <v>160.9723564724972</v>
       </c>
       <c r="J13" t="n">
-        <v>117.3525521967958</v>
+        <v>116.3802901373718</v>
       </c>
       <c r="K13" t="n">
-        <v>62.93345443721984</v>
+        <v>61.33572920648326</v>
       </c>
       <c r="L13" t="n">
-        <v>29.62548300147245</v>
+        <v>27.58094478367386</v>
       </c>
       <c r="M13" t="n">
-        <v>24.54979951156312</v>
+        <v>22.39412062630564</v>
       </c>
       <c r="N13" t="n">
-        <v>12.99467108847176</v>
+        <v>10.89024942892647</v>
       </c>
       <c r="O13" t="n">
-        <v>40.88220347059112</v>
+        <v>38.9384294574853</v>
       </c>
       <c r="P13" t="n">
-        <v>64.31249240386273</v>
+        <v>62.64925793831348</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.9583773647877</v>
+        <v>132.8068400329947</v>
       </c>
       <c r="R13" t="n">
-        <v>211.5597396435694</v>
+        <v>210.941402476807</v>
       </c>
       <c r="S13" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7727156918949</v>
       </c>
       <c r="T13" t="n">
-        <v>217.1844859583495</v>
+        <v>217.125727675216</v>
       </c>
       <c r="U13" t="n">
-        <v>291.208063148157</v>
+        <v>291.2073130424149</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23509,16 +23509,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6792080783892</v>
       </c>
       <c r="H14" t="n">
-        <v>344.8392336363538</v>
+        <v>344.5252616120142</v>
       </c>
       <c r="I14" t="n">
-        <v>235.1377299289993</v>
+        <v>233.9558032629818</v>
       </c>
       <c r="J14" t="n">
-        <v>61.2216581999468</v>
+        <v>58.61963373020026</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>66.8628898365198</v>
+        <v>63.55221521736678</v>
       </c>
       <c r="R14" t="n">
-        <v>180.0906730958467</v>
+        <v>178.1648783760692</v>
       </c>
       <c r="S14" t="n">
-        <v>224.5411397984024</v>
+        <v>223.8425300091053</v>
       </c>
       <c r="T14" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1489367886012</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7487244570701</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23588,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7467135268865</v>
       </c>
       <c r="H15" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1595984255204</v>
       </c>
       <c r="I15" t="n">
-        <v>108.279659353452</v>
+        <v>107.7148981354977</v>
       </c>
       <c r="J15" t="n">
-        <v>57.66394736845585</v>
+        <v>56.11419941992698</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.67813434720469</v>
+        <v>19.58427313862643</v>
       </c>
       <c r="R15" t="n">
-        <v>138.7554832289223</v>
+        <v>137.7370424898955</v>
       </c>
       <c r="S15" t="n">
-        <v>203.3445011265852</v>
+        <v>203.0398178453067</v>
       </c>
       <c r="T15" t="n">
-        <v>229.0801644257012</v>
+        <v>229.0140477939432</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6329854208729</v>
+        <v>249.63190625931</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23667,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0094874176874</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5781122917138</v>
       </c>
       <c r="I16" t="n">
-        <v>161.3859147716582</v>
+        <v>160.9723564724972</v>
       </c>
       <c r="J16" t="n">
-        <v>117.3525521967958</v>
+        <v>116.3802901373718</v>
       </c>
       <c r="K16" t="n">
-        <v>62.93345443721984</v>
+        <v>61.33572920648326</v>
       </c>
       <c r="L16" t="n">
-        <v>29.62548300147245</v>
+        <v>27.58094478367386</v>
       </c>
       <c r="M16" t="n">
-        <v>24.54979951156312</v>
+        <v>22.39412062630564</v>
       </c>
       <c r="N16" t="n">
-        <v>12.99467108847176</v>
+        <v>10.89024942892647</v>
       </c>
       <c r="O16" t="n">
-        <v>40.88220347059112</v>
+        <v>38.9384294574853</v>
       </c>
       <c r="P16" t="n">
-        <v>64.31249240386273</v>
+        <v>62.64925793831348</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.9583773647877</v>
+        <v>132.8068400329947</v>
       </c>
       <c r="R16" t="n">
-        <v>211.5597396435694</v>
+        <v>210.941402476807</v>
       </c>
       <c r="S16" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7727156918949</v>
       </c>
       <c r="T16" t="n">
-        <v>217.1844859583495</v>
+        <v>217.125727675216</v>
       </c>
       <c r="U16" t="n">
-        <v>291.208063148157</v>
+        <v>291.2073130424149</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23746,16 +23746,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6792080783892</v>
       </c>
       <c r="H17" t="n">
-        <v>344.8392336363538</v>
+        <v>344.5252616120142</v>
       </c>
       <c r="I17" t="n">
-        <v>235.1377299289993</v>
+        <v>233.9558032629818</v>
       </c>
       <c r="J17" t="n">
-        <v>61.2216581999468</v>
+        <v>58.61963373020026</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>66.8628898365198</v>
+        <v>63.55221521736678</v>
       </c>
       <c r="R17" t="n">
-        <v>180.0906730958467</v>
+        <v>178.1648783760692</v>
       </c>
       <c r="S17" t="n">
-        <v>224.5411397984024</v>
+        <v>223.8425300091053</v>
       </c>
       <c r="T17" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1489367886012</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7487244570701</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23825,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7467135268865</v>
       </c>
       <c r="H18" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1595984255204</v>
       </c>
       <c r="I18" t="n">
-        <v>108.279659353452</v>
+        <v>107.7148981354977</v>
       </c>
       <c r="J18" t="n">
-        <v>57.66394736845585</v>
+        <v>56.11419941992698</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.67813434720469</v>
+        <v>19.58427313862643</v>
       </c>
       <c r="R18" t="n">
-        <v>138.7554832289223</v>
+        <v>137.7370424898955</v>
       </c>
       <c r="S18" t="n">
-        <v>203.3445011265852</v>
+        <v>203.0398178453067</v>
       </c>
       <c r="T18" t="n">
-        <v>229.0801644257012</v>
+        <v>229.0140477939432</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6329854208729</v>
+        <v>249.63190625931</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23904,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0094874176874</v>
       </c>
       <c r="H19" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5781122917138</v>
       </c>
       <c r="I19" t="n">
-        <v>161.3859147716582</v>
+        <v>160.9723564724972</v>
       </c>
       <c r="J19" t="n">
-        <v>117.3525521967958</v>
+        <v>116.3802901373718</v>
       </c>
       <c r="K19" t="n">
-        <v>62.93345443721984</v>
+        <v>61.33572920648326</v>
       </c>
       <c r="L19" t="n">
-        <v>29.62548300147245</v>
+        <v>27.58094478367386</v>
       </c>
       <c r="M19" t="n">
-        <v>24.54979951156312</v>
+        <v>22.39412062630564</v>
       </c>
       <c r="N19" t="n">
-        <v>12.99467108847176</v>
+        <v>10.89024942892647</v>
       </c>
       <c r="O19" t="n">
-        <v>40.88220347059112</v>
+        <v>38.9384294574853</v>
       </c>
       <c r="P19" t="n">
-        <v>64.31249240386273</v>
+        <v>62.64925793831348</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.9583773647877</v>
+        <v>132.8068400329947</v>
       </c>
       <c r="R19" t="n">
-        <v>211.5597396435694</v>
+        <v>210.941402476807</v>
       </c>
       <c r="S19" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7727156918949</v>
       </c>
       <c r="T19" t="n">
-        <v>217.1844859583495</v>
+        <v>217.125727675216</v>
       </c>
       <c r="U19" t="n">
-        <v>291.208063148157</v>
+        <v>291.2073130424149</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23983,16 +23983,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6792080783892</v>
       </c>
       <c r="H20" t="n">
-        <v>344.8392336363538</v>
+        <v>344.5252616120142</v>
       </c>
       <c r="I20" t="n">
-        <v>235.1377299289993</v>
+        <v>233.9558032629818</v>
       </c>
       <c r="J20" t="n">
-        <v>61.2216581999468</v>
+        <v>58.61963373020026</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>66.8628898365198</v>
+        <v>63.55221521736678</v>
       </c>
       <c r="R20" t="n">
-        <v>180.0906730958467</v>
+        <v>178.1648783760692</v>
       </c>
       <c r="S20" t="n">
-        <v>224.5411397984024</v>
+        <v>223.8425300091053</v>
       </c>
       <c r="T20" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1489367886012</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7487244570701</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24062,16 +24062,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7467135268865</v>
       </c>
       <c r="H21" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1595984255204</v>
       </c>
       <c r="I21" t="n">
-        <v>108.279659353452</v>
+        <v>107.7148981354977</v>
       </c>
       <c r="J21" t="n">
-        <v>57.66394736845585</v>
+        <v>56.11419941992698</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>21.67813434720469</v>
+        <v>19.58427313862643</v>
       </c>
       <c r="R21" t="n">
-        <v>138.7554832289223</v>
+        <v>137.7370424898955</v>
       </c>
       <c r="S21" t="n">
-        <v>203.3445011265852</v>
+        <v>203.0398178453067</v>
       </c>
       <c r="T21" t="n">
-        <v>229.0801644257012</v>
+        <v>229.0140477939432</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6329854208729</v>
+        <v>249.63190625931</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24141,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0094874176874</v>
       </c>
       <c r="H22" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5781122917138</v>
       </c>
       <c r="I22" t="n">
-        <v>161.3859147716582</v>
+        <v>160.9723564724972</v>
       </c>
       <c r="J22" t="n">
-        <v>117.3525521967958</v>
+        <v>116.3802901373718</v>
       </c>
       <c r="K22" t="n">
-        <v>62.93345443721984</v>
+        <v>61.33572920648326</v>
       </c>
       <c r="L22" t="n">
-        <v>29.62548300147245</v>
+        <v>27.58094478367386</v>
       </c>
       <c r="M22" t="n">
-        <v>24.54979951156312</v>
+        <v>22.39412062630564</v>
       </c>
       <c r="N22" t="n">
-        <v>12.99467108847176</v>
+        <v>10.89024942892647</v>
       </c>
       <c r="O22" t="n">
-        <v>40.88220347059112</v>
+        <v>38.9384294574853</v>
       </c>
       <c r="P22" t="n">
-        <v>64.31249240386273</v>
+        <v>62.64925793831348</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.9583773647877</v>
+        <v>132.8068400329947</v>
       </c>
       <c r="R22" t="n">
-        <v>211.5597396435694</v>
+        <v>210.941402476807</v>
       </c>
       <c r="S22" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7727156918949</v>
       </c>
       <c r="T22" t="n">
-        <v>217.1844859583495</v>
+        <v>217.125727675216</v>
       </c>
       <c r="U22" t="n">
-        <v>291.208063148157</v>
+        <v>291.2073130424149</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24211,7 +24211,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D23" t="n">
-        <v>319.1317556432476</v>
+        <v>313.6614455509276</v>
       </c>
       <c r="E23" t="n">
         <v>359.9585549362873</v>
@@ -24220,16 +24220,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6792080783892</v>
       </c>
       <c r="H23" t="n">
-        <v>344.8392336363538</v>
+        <v>344.5252616120142</v>
       </c>
       <c r="I23" t="n">
-        <v>235.1377299289993</v>
+        <v>233.9558032629818</v>
       </c>
       <c r="J23" t="n">
-        <v>61.2216581999468</v>
+        <v>58.61963373020026</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>66.8628898365198</v>
+        <v>63.55221521736678</v>
       </c>
       <c r="R23" t="n">
-        <v>180.0906730958467</v>
+        <v>173.3466292467537</v>
       </c>
       <c r="S23" t="n">
-        <v>224.5411397984024</v>
+        <v>223.8425300091053</v>
       </c>
       <c r="T23" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1489367886012</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7487244570701</v>
       </c>
       <c r="V23" t="n">
-        <v>313.3044420010231</v>
+        <v>307.8341319087031</v>
       </c>
       <c r="W23" t="n">
         <v>325.3917254792934</v>
@@ -24274,7 +24274,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
-        <v>377.9289763951821</v>
+        <v>372.4586663028621</v>
       </c>
     </row>
     <row r="24">
@@ -24299,16 +24299,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7467135268865</v>
       </c>
       <c r="H24" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1595984255204</v>
       </c>
       <c r="I24" t="n">
-        <v>108.279659353452</v>
+        <v>107.7148981354977</v>
       </c>
       <c r="J24" t="n">
-        <v>57.66394736845585</v>
+        <v>56.11419941992698</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,25 +24329,25 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>21.67813434720469</v>
+        <v>19.58427313862643</v>
       </c>
       <c r="R24" t="n">
-        <v>138.7554832289223</v>
+        <v>137.7370424898955</v>
       </c>
       <c r="S24" t="n">
-        <v>203.3445011265852</v>
+        <v>203.0398178453067</v>
       </c>
       <c r="T24" t="n">
-        <v>229.0801644257012</v>
+        <v>223.5437377016232</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6329854208729</v>
+        <v>244.1615961669899</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>243.8296150878523</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2492567629311</v>
+        <v>278.4310076336156</v>
       </c>
       <c r="X24" t="n">
         <v>230.033063710963</v>
@@ -24378,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0094874176874</v>
       </c>
       <c r="H25" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5781122917138</v>
       </c>
       <c r="I25" t="n">
-        <v>161.3859147716582</v>
+        <v>160.9723564724972</v>
       </c>
       <c r="J25" t="n">
-        <v>117.3525521967958</v>
+        <v>116.3802901373718</v>
       </c>
       <c r="K25" t="n">
-        <v>62.93345443721984</v>
+        <v>61.33572920648326</v>
       </c>
       <c r="L25" t="n">
-        <v>29.62548300147245</v>
+        <v>27.58094478367386</v>
       </c>
       <c r="M25" t="n">
-        <v>24.54979951156312</v>
+        <v>22.39412062630564</v>
       </c>
       <c r="N25" t="n">
-        <v>12.99467108847176</v>
+        <v>10.89024942892647</v>
       </c>
       <c r="O25" t="n">
-        <v>40.88220347059112</v>
+        <v>38.9384294574853</v>
       </c>
       <c r="P25" t="n">
-        <v>64.31249240386273</v>
+        <v>62.64925793831348</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.9583773647877</v>
+        <v>132.8068400329947</v>
       </c>
       <c r="R25" t="n">
-        <v>211.5597396435694</v>
+        <v>210.941402476807</v>
       </c>
       <c r="S25" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7727156918949</v>
       </c>
       <c r="T25" t="n">
-        <v>217.1844859583495</v>
+        <v>217.125727675216</v>
       </c>
       <c r="U25" t="n">
-        <v>291.208063148157</v>
+        <v>291.2073130424149</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24445,7 +24445,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C26" t="n">
-        <v>333.5971194742085</v>
+        <v>328.1268093818884</v>
       </c>
       <c r="D26" t="n">
         <v>319.1317556432476</v>
@@ -24457,16 +24457,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6792080783892</v>
       </c>
       <c r="H26" t="n">
-        <v>344.8392336363538</v>
+        <v>344.5252616120142</v>
       </c>
       <c r="I26" t="n">
-        <v>235.1377299289993</v>
+        <v>233.9558032629818</v>
       </c>
       <c r="J26" t="n">
-        <v>61.2216581999468</v>
+        <v>58.61963373020026</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,25 +24487,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>66.8628898365198</v>
+        <v>63.55221521736678</v>
       </c>
       <c r="R26" t="n">
-        <v>180.0906730958467</v>
+        <v>178.1648783760692</v>
       </c>
       <c r="S26" t="n">
-        <v>224.5411397984024</v>
+        <v>223.8425300091053</v>
       </c>
       <c r="T26" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1489367886012</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7511770641198</v>
+        <v>243.9304753277546</v>
       </c>
       <c r="V26" t="n">
-        <v>313.3044420010231</v>
+        <v>307.8341319087031</v>
       </c>
       <c r="W26" t="n">
-        <v>325.3917254792934</v>
+        <v>319.9214153869733</v>
       </c>
       <c r="X26" t="n">
         <v>348.8168793035129</v>
@@ -24527,25 +24527,25 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D27" t="n">
-        <v>172.0989423795122</v>
+        <v>167.2806932501967</v>
       </c>
       <c r="E27" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F27" t="n">
-        <v>173.9843481253239</v>
+        <v>168.5140380330039</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7467135268865</v>
       </c>
       <c r="H27" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1595984255204</v>
       </c>
       <c r="I27" t="n">
-        <v>108.279659353452</v>
+        <v>107.7148981354977</v>
       </c>
       <c r="J27" t="n">
-        <v>57.66394736845585</v>
+        <v>56.11419941992698</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>21.67813434720469</v>
+        <v>19.58427313862643</v>
       </c>
       <c r="R27" t="n">
-        <v>138.7554832289223</v>
+        <v>137.7370424898955</v>
       </c>
       <c r="S27" t="n">
-        <v>203.3445011265852</v>
+        <v>197.5695077529866</v>
       </c>
       <c r="T27" t="n">
-        <v>229.0801644257012</v>
+        <v>223.5437377016232</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6329854208729</v>
+        <v>249.63190625931</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24615,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0094874176874</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5781122917138</v>
       </c>
       <c r="I28" t="n">
-        <v>161.3859147716582</v>
+        <v>160.9723564724972</v>
       </c>
       <c r="J28" t="n">
-        <v>117.3525521967958</v>
+        <v>116.3802901373718</v>
       </c>
       <c r="K28" t="n">
-        <v>62.93345443721984</v>
+        <v>61.33572920648326</v>
       </c>
       <c r="L28" t="n">
-        <v>29.62548300147245</v>
+        <v>27.58094478367386</v>
       </c>
       <c r="M28" t="n">
-        <v>24.54979951156312</v>
+        <v>22.39412062630564</v>
       </c>
       <c r="N28" t="n">
-        <v>12.99467108847176</v>
+        <v>10.89024942892647</v>
       </c>
       <c r="O28" t="n">
-        <v>40.88220347059112</v>
+        <v>38.9384294574853</v>
       </c>
       <c r="P28" t="n">
-        <v>64.31249240386273</v>
+        <v>62.64925793831348</v>
       </c>
       <c r="Q28" t="n">
-        <v>133.9583773647877</v>
+        <v>132.8068400329947</v>
       </c>
       <c r="R28" t="n">
-        <v>211.5597396435694</v>
+        <v>210.941402476807</v>
       </c>
       <c r="S28" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7727156918949</v>
       </c>
       <c r="T28" t="n">
-        <v>217.1844859583495</v>
+        <v>217.125727675216</v>
       </c>
       <c r="U28" t="n">
-        <v>291.208063148157</v>
+        <v>291.2073130424149</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24682,10 +24682,10 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
-        <v>333.5971194742085</v>
+        <v>328.1268093818884</v>
       </c>
       <c r="D29" t="n">
-        <v>319.1317556432476</v>
+        <v>314.3135065139321</v>
       </c>
       <c r="E29" t="n">
         <v>359.9585549362873</v>
@@ -24694,16 +24694,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6792080783892</v>
       </c>
       <c r="H29" t="n">
-        <v>344.8392336363538</v>
+        <v>344.5252616120142</v>
       </c>
       <c r="I29" t="n">
-        <v>235.1377299289993</v>
+        <v>233.9558032629818</v>
       </c>
       <c r="J29" t="n">
-        <v>61.2216581999468</v>
+        <v>58.61963373020026</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>66.8628898365198</v>
+        <v>63.55221521736678</v>
       </c>
       <c r="R29" t="n">
-        <v>180.0906730958467</v>
+        <v>172.6945682837491</v>
       </c>
       <c r="S29" t="n">
-        <v>224.5411397984024</v>
+        <v>223.8425300091053</v>
       </c>
       <c r="T29" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1489367886012</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7511770641198</v>
+        <v>243.2784143647501</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24773,16 +24773,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7631167826437</v>
+        <v>155.928464397571</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1595984255204</v>
       </c>
       <c r="I30" t="n">
-        <v>108.279659353452</v>
+        <v>107.7148981354977</v>
       </c>
       <c r="J30" t="n">
-        <v>57.66394736845585</v>
+        <v>56.11419941992698</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,22 +24803,22 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>21.67813434720469</v>
+        <v>19.58427313862643</v>
       </c>
       <c r="R30" t="n">
-        <v>138.7554832289223</v>
+        <v>137.7370424898955</v>
       </c>
       <c r="S30" t="n">
-        <v>203.3445011265852</v>
+        <v>203.0398178453067</v>
       </c>
       <c r="T30" t="n">
-        <v>229.0801644257012</v>
+        <v>223.5437377016232</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6329854208729</v>
+        <v>244.1615961669899</v>
       </c>
       <c r="V30" t="n">
-        <v>249.2999251801724</v>
+        <v>243.8296150878523</v>
       </c>
       <c r="W30" t="n">
         <v>283.2492567629311</v>
@@ -24852,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0094874176874</v>
       </c>
       <c r="H31" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5781122917138</v>
       </c>
       <c r="I31" t="n">
-        <v>161.3859147716582</v>
+        <v>160.9723564724972</v>
       </c>
       <c r="J31" t="n">
-        <v>117.3525521967958</v>
+        <v>116.3802901373718</v>
       </c>
       <c r="K31" t="n">
-        <v>62.93345443721984</v>
+        <v>61.33572920648326</v>
       </c>
       <c r="L31" t="n">
-        <v>29.62548300147245</v>
+        <v>27.58094478367386</v>
       </c>
       <c r="M31" t="n">
-        <v>24.54979951156312</v>
+        <v>22.39412062630564</v>
       </c>
       <c r="N31" t="n">
-        <v>12.99467108847176</v>
+        <v>10.89024942892647</v>
       </c>
       <c r="O31" t="n">
-        <v>40.88220347059112</v>
+        <v>38.9384294574853</v>
       </c>
       <c r="P31" t="n">
-        <v>64.31249240386273</v>
+        <v>62.64925793831348</v>
       </c>
       <c r="Q31" t="n">
-        <v>133.9583773647877</v>
+        <v>132.8068400329947</v>
       </c>
       <c r="R31" t="n">
-        <v>211.5597396435694</v>
+        <v>210.941402476807</v>
       </c>
       <c r="S31" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7727156918949</v>
       </c>
       <c r="T31" t="n">
-        <v>217.1844859583495</v>
+        <v>217.125727675216</v>
       </c>
       <c r="U31" t="n">
-        <v>291.208063148157</v>
+        <v>291.2073130424149</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24928,19 +24928,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F32" t="n">
-        <v>399.146417573369</v>
+        <v>393.676107481049</v>
       </c>
       <c r="G32" t="n">
-        <v>421.7098656665098</v>
+        <v>416.2088979860691</v>
       </c>
       <c r="H32" t="n">
-        <v>344.8392336363538</v>
+        <v>344.5252616120142</v>
       </c>
       <c r="I32" t="n">
-        <v>235.1377299289993</v>
+        <v>233.9558032629818</v>
       </c>
       <c r="J32" t="n">
-        <v>61.2216581999468</v>
+        <v>58.61963373020026</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>66.8628898365198</v>
+        <v>58.73396608805128</v>
       </c>
       <c r="R32" t="n">
-        <v>180.0906730958467</v>
+        <v>172.6945682837491</v>
       </c>
       <c r="S32" t="n">
-        <v>224.5411397984024</v>
+        <v>223.8425300091053</v>
       </c>
       <c r="T32" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1489367886012</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7487244570701</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25010,16 +25010,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7467135268865</v>
       </c>
       <c r="H33" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1595984255204</v>
       </c>
       <c r="I33" t="n">
-        <v>108.279659353452</v>
+        <v>107.7148981354977</v>
       </c>
       <c r="J33" t="n">
-        <v>57.66394736845585</v>
+        <v>56.11419941992698</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,25 +25040,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>21.67813434720469</v>
+        <v>14.11396304630638</v>
       </c>
       <c r="R33" t="n">
-        <v>138.7554832289223</v>
+        <v>132.2667323975755</v>
       </c>
       <c r="S33" t="n">
-        <v>203.3445011265852</v>
+        <v>203.0398178453067</v>
       </c>
       <c r="T33" t="n">
-        <v>229.0801644257012</v>
+        <v>229.0140477939432</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6329854208729</v>
+        <v>249.63190625931</v>
       </c>
       <c r="V33" t="n">
-        <v>249.2999251801724</v>
+        <v>244.4816760508569</v>
       </c>
       <c r="W33" t="n">
-        <v>283.2492567629311</v>
+        <v>277.778946670611</v>
       </c>
       <c r="X33" t="n">
         <v>230.033063710963</v>
@@ -25089,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0094874176874</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5781122917138</v>
       </c>
       <c r="I34" t="n">
-        <v>161.3859147716582</v>
+        <v>160.9723564724972</v>
       </c>
       <c r="J34" t="n">
-        <v>117.3525521967958</v>
+        <v>116.3802901373718</v>
       </c>
       <c r="K34" t="n">
-        <v>62.93345443721984</v>
+        <v>61.33572920648326</v>
       </c>
       <c r="L34" t="n">
-        <v>29.62548300147245</v>
+        <v>27.58094478367386</v>
       </c>
       <c r="M34" t="n">
-        <v>24.54979951156312</v>
+        <v>22.39412062630564</v>
       </c>
       <c r="N34" t="n">
-        <v>12.99467108847176</v>
+        <v>10.89024942892647</v>
       </c>
       <c r="O34" t="n">
-        <v>40.88220347059112</v>
+        <v>38.9384294574853</v>
       </c>
       <c r="P34" t="n">
-        <v>64.31249240386273</v>
+        <v>62.64925793831348</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.9583773647877</v>
+        <v>132.8068400329947</v>
       </c>
       <c r="R34" t="n">
-        <v>211.5597396435694</v>
+        <v>210.941402476807</v>
       </c>
       <c r="S34" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7727156918949</v>
       </c>
       <c r="T34" t="n">
-        <v>217.1844859583495</v>
+        <v>217.125727675216</v>
       </c>
       <c r="U34" t="n">
-        <v>291.208063148157</v>
+        <v>291.2073130424149</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25165,19 +25165,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F35" t="n">
-        <v>399.146417573369</v>
+        <v>393.676107481049</v>
       </c>
       <c r="G35" t="n">
-        <v>421.7098656665098</v>
+        <v>416.2088979860691</v>
       </c>
       <c r="H35" t="n">
-        <v>344.8392336363538</v>
+        <v>344.5252616120142</v>
       </c>
       <c r="I35" t="n">
-        <v>235.1377299289993</v>
+        <v>233.9558032629818</v>
       </c>
       <c r="J35" t="n">
-        <v>61.2216581999468</v>
+        <v>58.61963373020026</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>66.8628898365198</v>
+        <v>58.08190512504672</v>
       </c>
       <c r="R35" t="n">
-        <v>180.0906730958467</v>
+        <v>178.1648783760692</v>
       </c>
       <c r="S35" t="n">
-        <v>224.5411397984024</v>
+        <v>223.8425300091053</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1489367886012</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7487244570701</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25222,7 +25222,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
-        <v>377.9289763951821</v>
+        <v>373.1107272658666</v>
       </c>
     </row>
     <row r="36">
@@ -25247,16 +25247,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7467135268865</v>
       </c>
       <c r="H36" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1595984255204</v>
       </c>
       <c r="I36" t="n">
-        <v>108.279659353452</v>
+        <v>107.7148981354977</v>
       </c>
       <c r="J36" t="n">
-        <v>57.66394736845585</v>
+        <v>56.11419941992698</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,31 +25277,31 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>21.67813434720469</v>
+        <v>19.58427313862643</v>
       </c>
       <c r="R36" t="n">
-        <v>138.7554832289223</v>
+        <v>137.7370424898955</v>
       </c>
       <c r="S36" t="n">
-        <v>203.3445011265852</v>
+        <v>203.0398178453067</v>
       </c>
       <c r="T36" t="n">
-        <v>229.0801644257012</v>
+        <v>229.0140477939432</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6329854208729</v>
+        <v>244.1615961669899</v>
       </c>
       <c r="V36" t="n">
-        <v>249.2999251801724</v>
+        <v>243.8296150878523</v>
       </c>
       <c r="W36" t="n">
-        <v>283.2492567629311</v>
+        <v>277.778946670611</v>
       </c>
       <c r="X36" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y36" t="n">
-        <v>242.8962664135933</v>
+        <v>238.0780172842778</v>
       </c>
     </row>
     <row r="37">
@@ -25326,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0094874176874</v>
       </c>
       <c r="H37" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5781122917138</v>
       </c>
       <c r="I37" t="n">
-        <v>161.3859147716582</v>
+        <v>160.9723564724972</v>
       </c>
       <c r="J37" t="n">
-        <v>117.3525521967958</v>
+        <v>116.3802901373718</v>
       </c>
       <c r="K37" t="n">
-        <v>62.93345443721984</v>
+        <v>61.33572920648326</v>
       </c>
       <c r="L37" t="n">
-        <v>29.62548300147245</v>
+        <v>27.58094478367386</v>
       </c>
       <c r="M37" t="n">
-        <v>24.54979951156312</v>
+        <v>22.39412062630564</v>
       </c>
       <c r="N37" t="n">
-        <v>12.99467108847176</v>
+        <v>10.89024942892647</v>
       </c>
       <c r="O37" t="n">
-        <v>40.88220347059112</v>
+        <v>38.9384294574853</v>
       </c>
       <c r="P37" t="n">
-        <v>64.31249240386273</v>
+        <v>62.64925793831348</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.9583773647877</v>
+        <v>132.8068400329947</v>
       </c>
       <c r="R37" t="n">
-        <v>211.5597396435694</v>
+        <v>210.941402476807</v>
       </c>
       <c r="S37" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7727156918949</v>
       </c>
       <c r="T37" t="n">
-        <v>217.1844859583495</v>
+        <v>217.125727675216</v>
       </c>
       <c r="U37" t="n">
-        <v>291.208063148157</v>
+        <v>291.2073130424149</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25399,22 +25399,22 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E38" t="n">
-        <v>359.9585549362873</v>
+        <v>355.1403058069718</v>
       </c>
       <c r="F38" t="n">
-        <v>399.146417573369</v>
+        <v>393.676107481049</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7098656665098</v>
+        <v>416.2088979860691</v>
       </c>
       <c r="H38" t="n">
-        <v>344.8392336363538</v>
+        <v>344.5252616120142</v>
       </c>
       <c r="I38" t="n">
-        <v>235.1377299289993</v>
+        <v>233.9558032629818</v>
       </c>
       <c r="J38" t="n">
-        <v>61.2216581999468</v>
+        <v>58.61963373020026</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>66.8628898365198</v>
+        <v>58.08190512504672</v>
       </c>
       <c r="R38" t="n">
-        <v>180.0906730958467</v>
+        <v>178.1648783760692</v>
       </c>
       <c r="S38" t="n">
-        <v>224.5411397984024</v>
+        <v>223.8425300091053</v>
       </c>
       <c r="T38" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1489367886012</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7487244570701</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25484,16 +25484,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7467135268865</v>
       </c>
       <c r="H39" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1595984255204</v>
       </c>
       <c r="I39" t="n">
-        <v>108.279659353452</v>
+        <v>107.7148981354977</v>
       </c>
       <c r="J39" t="n">
-        <v>57.66394736845585</v>
+        <v>56.11419941992698</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,31 +25514,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>21.67813434720469</v>
+        <v>19.58427313862643</v>
       </c>
       <c r="R39" t="n">
-        <v>138.7554832289223</v>
+        <v>137.7370424898955</v>
       </c>
       <c r="S39" t="n">
-        <v>203.3445011265852</v>
+        <v>203.0398178453067</v>
       </c>
       <c r="T39" t="n">
-        <v>229.0801644257012</v>
+        <v>229.0140477939432</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6329854208729</v>
+        <v>244.1615961669899</v>
       </c>
       <c r="V39" t="n">
-        <v>249.2999251801724</v>
+        <v>243.8296150878523</v>
       </c>
       <c r="W39" t="n">
-        <v>283.2492567629311</v>
+        <v>277.778946670611</v>
       </c>
       <c r="X39" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y39" t="n">
-        <v>242.8962664135933</v>
+        <v>238.0780172842778</v>
       </c>
     </row>
     <row r="40">
@@ -25563,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0094874176874</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5781122917138</v>
       </c>
       <c r="I40" t="n">
-        <v>161.3859147716582</v>
+        <v>160.9723564724972</v>
       </c>
       <c r="J40" t="n">
-        <v>117.3525521967958</v>
+        <v>116.3802901373718</v>
       </c>
       <c r="K40" t="n">
-        <v>62.93345443721984</v>
+        <v>61.33572920648326</v>
       </c>
       <c r="L40" t="n">
-        <v>29.62548300147245</v>
+        <v>27.58094478367386</v>
       </c>
       <c r="M40" t="n">
-        <v>24.54979951156312</v>
+        <v>22.39412062630564</v>
       </c>
       <c r="N40" t="n">
-        <v>12.99467108847176</v>
+        <v>10.89024942892647</v>
       </c>
       <c r="O40" t="n">
-        <v>40.88220347059112</v>
+        <v>38.9384294574853</v>
       </c>
       <c r="P40" t="n">
-        <v>64.31249240386273</v>
+        <v>62.64925793831348</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.9583773647877</v>
+        <v>132.8068400329947</v>
       </c>
       <c r="R40" t="n">
-        <v>211.5597396435694</v>
+        <v>210.941402476807</v>
       </c>
       <c r="S40" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7727156918949</v>
       </c>
       <c r="T40" t="n">
-        <v>217.1844859583495</v>
+        <v>217.125727675216</v>
       </c>
       <c r="U40" t="n">
-        <v>291.208063148157</v>
+        <v>291.2073130424149</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25642,16 +25642,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6792080783892</v>
       </c>
       <c r="H41" t="n">
-        <v>344.8392336363538</v>
+        <v>344.5252616120142</v>
       </c>
       <c r="I41" t="n">
-        <v>235.1377299289993</v>
+        <v>233.9558032629818</v>
       </c>
       <c r="J41" t="n">
-        <v>61.2216581999468</v>
+        <v>58.61963373020026</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,31 +25672,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>66.8628898365198</v>
+        <v>63.55221521736678</v>
       </c>
       <c r="R41" t="n">
-        <v>180.0906730958467</v>
+        <v>172.6945682837491</v>
       </c>
       <c r="S41" t="n">
-        <v>224.5411397984024</v>
+        <v>223.8425300091053</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1489367886012</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7487244570701</v>
       </c>
       <c r="V41" t="n">
-        <v>313.3044420010231</v>
+        <v>308.4861928717076</v>
       </c>
       <c r="W41" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X41" t="n">
-        <v>348.8168793035129</v>
+        <v>343.3465692111928</v>
       </c>
       <c r="Y41" t="n">
-        <v>377.9289763951821</v>
+        <v>372.4586663028621</v>
       </c>
     </row>
     <row r="42">
@@ -25721,16 +25721,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7467135268865</v>
       </c>
       <c r="H42" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1595984255204</v>
       </c>
       <c r="I42" t="n">
-        <v>108.279659353452</v>
+        <v>107.7148981354977</v>
       </c>
       <c r="J42" t="n">
-        <v>57.66394736845585</v>
+        <v>56.11419941992698</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,31 +25751,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>21.67813434720469</v>
+        <v>19.58427313862643</v>
       </c>
       <c r="R42" t="n">
-        <v>138.7554832289223</v>
+        <v>137.7370424898955</v>
       </c>
       <c r="S42" t="n">
-        <v>203.3445011265852</v>
+        <v>203.0398178453067</v>
       </c>
       <c r="T42" t="n">
-        <v>229.0801644257012</v>
+        <v>229.0140477939432</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6329854208729</v>
+        <v>249.63190625931</v>
       </c>
       <c r="V42" t="n">
-        <v>249.2999251801724</v>
+        <v>243.8296150878523</v>
       </c>
       <c r="W42" t="n">
-        <v>283.2492567629311</v>
+        <v>277.778946670611</v>
       </c>
       <c r="X42" t="n">
-        <v>230.033063710963</v>
+        <v>224.5627536186429</v>
       </c>
       <c r="Y42" t="n">
-        <v>242.8962664135933</v>
+        <v>238.0780172842778</v>
       </c>
     </row>
     <row r="43">
@@ -25800,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0094874176874</v>
       </c>
       <c r="H43" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5781122917138</v>
       </c>
       <c r="I43" t="n">
-        <v>161.3859147716582</v>
+        <v>160.9723564724972</v>
       </c>
       <c r="J43" t="n">
-        <v>117.3525521967958</v>
+        <v>116.3802901373718</v>
       </c>
       <c r="K43" t="n">
-        <v>62.93345443721984</v>
+        <v>61.33572920648326</v>
       </c>
       <c r="L43" t="n">
-        <v>29.62548300147245</v>
+        <v>27.58094478367386</v>
       </c>
       <c r="M43" t="n">
-        <v>24.54979951156312</v>
+        <v>22.39412062630564</v>
       </c>
       <c r="N43" t="n">
-        <v>12.99467108847176</v>
+        <v>10.89024942892647</v>
       </c>
       <c r="O43" t="n">
-        <v>40.88220347059112</v>
+        <v>38.9384294574853</v>
       </c>
       <c r="P43" t="n">
-        <v>64.31249240386273</v>
+        <v>62.64925793831348</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.9583773647877</v>
+        <v>132.8068400329947</v>
       </c>
       <c r="R43" t="n">
-        <v>211.5597396435694</v>
+        <v>210.941402476807</v>
       </c>
       <c r="S43" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7727156918949</v>
       </c>
       <c r="T43" t="n">
-        <v>217.1844859583495</v>
+        <v>217.125727675216</v>
       </c>
       <c r="U43" t="n">
-        <v>291.208063148157</v>
+        <v>291.2073130424149</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25876,19 +25876,19 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>399.146417573369</v>
+        <v>394.3281684440535</v>
       </c>
       <c r="G44" t="n">
-        <v>421.7098656665098</v>
+        <v>421.6792080783892</v>
       </c>
       <c r="H44" t="n">
-        <v>344.8392336363538</v>
+        <v>344.5252616120142</v>
       </c>
       <c r="I44" t="n">
-        <v>235.1377299289993</v>
+        <v>233.9558032629818</v>
       </c>
       <c r="J44" t="n">
-        <v>61.2216581999468</v>
+        <v>58.61963373020026</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>66.8628898365198</v>
+        <v>58.08190512504672</v>
       </c>
       <c r="R44" t="n">
-        <v>180.0906730958467</v>
+        <v>172.6945682837491</v>
       </c>
       <c r="S44" t="n">
-        <v>224.5411397984024</v>
+        <v>218.3722199167853</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1489367886012</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7487244570701</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25958,16 +25958,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7467135268865</v>
       </c>
       <c r="H45" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1595984255204</v>
       </c>
       <c r="I45" t="n">
-        <v>108.279659353452</v>
+        <v>107.7148981354977</v>
       </c>
       <c r="J45" t="n">
-        <v>57.66394736845585</v>
+        <v>56.11419941992698</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,28 +25988,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.67813434720469</v>
+        <v>14.11396304630637</v>
       </c>
       <c r="R45" t="n">
-        <v>138.7554832289223</v>
+        <v>137.7370424898955</v>
       </c>
       <c r="S45" t="n">
-        <v>203.3445011265852</v>
+        <v>203.0398178453067</v>
       </c>
       <c r="T45" t="n">
-        <v>229.0801644257012</v>
+        <v>229.0140477939432</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6329854208729</v>
+        <v>249.63190625931</v>
       </c>
       <c r="V45" t="n">
-        <v>249.2999251801724</v>
+        <v>243.8296150878523</v>
       </c>
       <c r="W45" t="n">
-        <v>283.2492567629311</v>
+        <v>277.778946670611</v>
       </c>
       <c r="X45" t="n">
-        <v>230.033063710963</v>
+        <v>225.2148145816475</v>
       </c>
       <c r="Y45" t="n">
         <v>242.8962664135933</v>
@@ -26037,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0094874176874</v>
       </c>
       <c r="H46" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5781122917138</v>
       </c>
       <c r="I46" t="n">
-        <v>161.3859147716582</v>
+        <v>160.9723564724972</v>
       </c>
       <c r="J46" t="n">
-        <v>117.3525521967958</v>
+        <v>116.3802901373718</v>
       </c>
       <c r="K46" t="n">
-        <v>62.93345443721984</v>
+        <v>61.33572920648326</v>
       </c>
       <c r="L46" t="n">
-        <v>29.62548300147245</v>
+        <v>27.58094478367386</v>
       </c>
       <c r="M46" t="n">
-        <v>24.54979951156312</v>
+        <v>22.39412062630564</v>
       </c>
       <c r="N46" t="n">
-        <v>12.99467108847176</v>
+        <v>10.89024942892647</v>
       </c>
       <c r="O46" t="n">
-        <v>40.88220347059112</v>
+        <v>38.9384294574853</v>
       </c>
       <c r="P46" t="n">
-        <v>64.31249240386273</v>
+        <v>62.64925793831348</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.9583773647877</v>
+        <v>132.8068400329947</v>
       </c>
       <c r="R46" t="n">
-        <v>211.5597396435694</v>
+        <v>210.941402476807</v>
       </c>
       <c r="S46" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7727156918949</v>
       </c>
       <c r="T46" t="n">
-        <v>217.1844859583495</v>
+        <v>217.125727675216</v>
       </c>
       <c r="U46" t="n">
-        <v>291.208063148157</v>
+        <v>291.2073130424149</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1154526.17053041</v>
+        <v>1157997.443233868</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1149579.706459621</v>
+        <v>1150935.5024077</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>394063.9520879592</v>
+        <v>394665.8308445857</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>394063.9520879592</v>
+        <v>394665.8308445857</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>394063.9520879592</v>
+        <v>394665.8308445857</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>394063.9520879592</v>
+        <v>394665.8308445857</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>394063.9520879592</v>
+        <v>398353.3920368245</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>394063.9520879592</v>
+        <v>398353.3920368246</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>394063.9520879592</v>
+        <v>398353.3920368245</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>394063.9520879592</v>
+        <v>398353.3920368244</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>394063.9520879592</v>
+        <v>398353.3920368244</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>394063.9520879592</v>
+        <v>398353.3920368244</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394063.9520879592</v>
+        <v>398353.3920368244</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>394063.9520879592</v>
+        <v>398353.3920368244</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546846.2755035073</v>
+        <v>546840.3069287731</v>
       </c>
       <c r="C2" t="n">
-        <v>546846.5903286961</v>
+        <v>546846.590328696</v>
       </c>
       <c r="D2" t="n">
-        <v>546853.5913296627</v>
+        <v>546851.922514845</v>
       </c>
       <c r="E2" t="n">
-        <v>183139.6229770186</v>
+        <v>183955.6332246823</v>
       </c>
       <c r="F2" t="n">
-        <v>183139.6229770186</v>
+        <v>183955.6332246823</v>
       </c>
       <c r="G2" t="n">
-        <v>183139.6229770186</v>
+        <v>183955.6332246823</v>
       </c>
       <c r="H2" t="n">
-        <v>183139.6229770186</v>
+        <v>183955.6332246823</v>
       </c>
       <c r="I2" t="n">
-        <v>183139.6229770186</v>
+        <v>185444.8601600326</v>
       </c>
       <c r="J2" t="n">
-        <v>183139.6229770186</v>
+        <v>185444.8601600325</v>
       </c>
       <c r="K2" t="n">
-        <v>183139.6229770186</v>
+        <v>185444.8601600325</v>
       </c>
       <c r="L2" t="n">
-        <v>183139.6229770186</v>
+        <v>185444.8601600326</v>
       </c>
       <c r="M2" t="n">
-        <v>183139.6229770186</v>
+        <v>185444.8601600325</v>
       </c>
       <c r="N2" t="n">
-        <v>183139.6229770186</v>
+        <v>185444.8601600325</v>
       </c>
       <c r="O2" t="n">
-        <v>183139.6229770186</v>
+        <v>185444.8601600326</v>
       </c>
       <c r="P2" t="n">
-        <v>183139.6229770186</v>
+        <v>185444.8601600325</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>329223.0061167778</v>
+        <v>297965.4180442812</v>
       </c>
       <c r="C3" t="n">
-        <v>1558.045904853998</v>
+        <v>31096.06813368603</v>
       </c>
       <c r="D3" t="n">
-        <v>32585.62631485736</v>
+        <v>24818.25471997845</v>
       </c>
       <c r="E3" t="n">
-        <v>69352.80631588837</v>
+        <v>82766.19848931013</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1454.67033005985</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>418430.1700736278</v>
+        <v>429243.3084295139</v>
       </c>
       <c r="C4" t="n">
-        <v>417860.3230835526</v>
+        <v>417860.3230835525</v>
       </c>
       <c r="D4" t="n">
-        <v>405789.2563960744</v>
+        <v>408635.3012622751</v>
       </c>
       <c r="E4" t="n">
-        <v>19822.11383057336</v>
+        <v>18756.49338545218</v>
       </c>
       <c r="F4" t="n">
-        <v>19822.11383057336</v>
+        <v>18756.49338545218</v>
       </c>
       <c r="G4" t="n">
-        <v>19822.11383057336</v>
+        <v>18756.49338545218</v>
       </c>
       <c r="H4" t="n">
-        <v>19822.11383057336</v>
+        <v>18756.49338545218</v>
       </c>
       <c r="I4" t="n">
-        <v>19822.11383057336</v>
+        <v>19404.81552964777</v>
       </c>
       <c r="J4" t="n">
-        <v>19822.11383057336</v>
+        <v>19404.81552964777</v>
       </c>
       <c r="K4" t="n">
-        <v>19822.11383057336</v>
+        <v>19404.81552964777</v>
       </c>
       <c r="L4" t="n">
-        <v>19822.11383057336</v>
+        <v>19404.81552964777</v>
       </c>
       <c r="M4" t="n">
-        <v>19822.11383057336</v>
+        <v>19404.81552964777</v>
       </c>
       <c r="N4" t="n">
-        <v>19822.11383057336</v>
+        <v>19404.81552964777</v>
       </c>
       <c r="O4" t="n">
-        <v>19822.11383057336</v>
+        <v>19404.81552964777</v>
       </c>
       <c r="P4" t="n">
-        <v>19822.11383057336</v>
+        <v>19404.81552964777</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41075.67462471527</v>
+        <v>40368.52827033812</v>
       </c>
       <c r="C5" t="n">
         <v>41112.97456555201</v>
       </c>
       <c r="D5" t="n">
-        <v>41942.44098443807</v>
+        <v>41744.72270709982</v>
       </c>
       <c r="E5" t="n">
-        <v>10196.69999876384</v>
+        <v>10362.94843474456</v>
       </c>
       <c r="F5" t="n">
-        <v>10196.69999876384</v>
+        <v>10362.94843474456</v>
       </c>
       <c r="G5" t="n">
-        <v>10196.69999876384</v>
+        <v>10362.94843474456</v>
       </c>
       <c r="H5" t="n">
-        <v>10196.69999876384</v>
+        <v>10362.94843474456</v>
       </c>
       <c r="I5" t="n">
-        <v>10196.69999876384</v>
+        <v>10695.54328835762</v>
       </c>
       <c r="J5" t="n">
-        <v>10196.69999876384</v>
+        <v>10695.54328835762</v>
       </c>
       <c r="K5" t="n">
-        <v>10196.69999876384</v>
+        <v>10695.54328835762</v>
       </c>
       <c r="L5" t="n">
-        <v>10196.69999876384</v>
+        <v>10695.54328835762</v>
       </c>
       <c r="M5" t="n">
-        <v>10196.69999876384</v>
+        <v>10695.54328835762</v>
       </c>
       <c r="N5" t="n">
-        <v>10196.69999876384</v>
+        <v>10695.54328835762</v>
       </c>
       <c r="O5" t="n">
-        <v>10196.69999876384</v>
+        <v>10695.54328835762</v>
       </c>
       <c r="P5" t="n">
-        <v>10196.69999876384</v>
+        <v>10695.54328835762</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-241882.5753116135</v>
+        <v>-220781.4186211479</v>
       </c>
       <c r="C6" t="n">
-        <v>86315.2467747375</v>
+        <v>56733.02693141867</v>
       </c>
       <c r="D6" t="n">
-        <v>66536.26763429289</v>
+        <v>71609.67804518538</v>
       </c>
       <c r="E6" t="n">
-        <v>83768.00283179304</v>
+        <v>56247.92760051422</v>
       </c>
       <c r="F6" t="n">
-        <v>153120.8091476814</v>
+        <v>139014.1260898243</v>
       </c>
       <c r="G6" t="n">
-        <v>153120.8091476814</v>
+        <v>139014.1260898243</v>
       </c>
       <c r="H6" t="n">
-        <v>153120.8091476814</v>
+        <v>139014.1260898243</v>
       </c>
       <c r="I6" t="n">
-        <v>153120.8091476814</v>
+        <v>138132.5146944952</v>
       </c>
       <c r="J6" t="n">
-        <v>153120.8091476814</v>
+        <v>139587.1850245551</v>
       </c>
       <c r="K6" t="n">
-        <v>153120.8091476814</v>
+        <v>139587.1850245551</v>
       </c>
       <c r="L6" t="n">
-        <v>153120.8091476814</v>
+        <v>139587.1850245551</v>
       </c>
       <c r="M6" t="n">
-        <v>153120.8091476814</v>
+        <v>139587.185024555</v>
       </c>
       <c r="N6" t="n">
-        <v>153120.8091476814</v>
+        <v>139587.1850245551</v>
       </c>
       <c r="O6" t="n">
-        <v>153120.8091476814</v>
+        <v>139587.1850245551</v>
       </c>
       <c r="P6" t="n">
-        <v>153120.8091476814</v>
+        <v>139587.1850245551</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>341.6547992988656</v>
+        <v>309.2168931347763</v>
       </c>
       <c r="C3" t="n">
         <v>343.3658057592666</v>
       </c>
       <c r="D3" t="n">
-        <v>381.4147240567924</v>
+        <v>372.3450783073314</v>
       </c>
       <c r="E3" t="n">
-        <v>467.7385320533874</v>
+        <v>475.3646070983742</v>
       </c>
       <c r="F3" t="n">
-        <v>467.7385320533874</v>
+        <v>475.3646070983742</v>
       </c>
       <c r="G3" t="n">
-        <v>467.7385320533874</v>
+        <v>475.3646070983742</v>
       </c>
       <c r="H3" t="n">
-        <v>467.7385320533874</v>
+        <v>475.3646070983742</v>
       </c>
       <c r="I3" t="n">
-        <v>467.7385320533874</v>
+        <v>475.3646070983742</v>
       </c>
       <c r="J3" t="n">
-        <v>467.7385320533874</v>
+        <v>475.3646070983742</v>
       </c>
       <c r="K3" t="n">
-        <v>467.7385320533874</v>
+        <v>475.3646070983742</v>
       </c>
       <c r="L3" t="n">
-        <v>467.7385320533874</v>
+        <v>475.3646070983742</v>
       </c>
       <c r="M3" t="n">
-        <v>467.7385320533874</v>
+        <v>475.3646070983742</v>
       </c>
       <c r="N3" t="n">
-        <v>467.7385320533874</v>
+        <v>475.3646070983742</v>
       </c>
       <c r="O3" t="n">
-        <v>467.7385320533874</v>
+        <v>475.3646070983742</v>
       </c>
       <c r="P3" t="n">
-        <v>467.7385320533874</v>
+        <v>475.3646070983742</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>341.6547992988656</v>
+        <v>309.2168931347763</v>
       </c>
       <c r="C3" t="n">
-        <v>1.71100646040092</v>
+        <v>34.14891262449021</v>
       </c>
       <c r="D3" t="n">
-        <v>38.04891829752592</v>
+        <v>28.9792725480649</v>
       </c>
       <c r="E3" t="n">
-        <v>86.32380799659495</v>
+        <v>103.0195287910428</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5.470310092320086</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27396,46 +27396,46 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>350.0302086235789</v>
+        <v>351.3657049311285</v>
       </c>
       <c r="I2" t="n">
-        <v>254.6788077461599</v>
+        <v>259.706194187933</v>
       </c>
       <c r="J2" t="n">
-        <v>104.241554533109</v>
+        <v>115.309400717207</v>
       </c>
       <c r="K2" t="n">
-        <v>62.89094992975379</v>
+        <v>79.47878231656895</v>
       </c>
       <c r="L2" t="n">
-        <v>19.46997469197376</v>
+        <v>40.04864756429342</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.733351762019083</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.093541586991591</v>
+        <v>28.06508836972404</v>
       </c>
       <c r="P2" t="n">
-        <v>57.00149786528118</v>
+        <v>75.75370471464296</v>
       </c>
       <c r="Q2" t="n">
-        <v>121.5990695169012</v>
+        <v>135.6811959059556</v>
       </c>
       <c r="R2" t="n">
-        <v>211.9303003426456</v>
+        <v>220.1217681741228</v>
       </c>
       <c r="S2" t="n">
-        <v>236.0914234572714</v>
+        <v>239.0629964691877</v>
       </c>
       <c r="T2" t="n">
-        <v>219.5019606424398</v>
+        <v>220.0728025891063</v>
       </c>
       <c r="U2" t="n">
-        <v>248.7917266063122</v>
+        <v>248.8021588977418</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -27472,19 +27472,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0343157549836</v>
+        <v>161.1040878550346</v>
       </c>
       <c r="H3" t="n">
-        <v>137.937230470563</v>
+        <v>138.6110820684246</v>
       </c>
       <c r="I3" t="n">
-        <v>117.6169923923482</v>
+        <v>120.0192335563868</v>
       </c>
       <c r="J3" t="n">
-        <v>83.28630290869316</v>
+        <v>89.87823627360493</v>
       </c>
       <c r="K3" t="n">
-        <v>14.16511697308491</v>
+        <v>25.43178104141768</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27502,19 +27502,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.29644527255945</v>
+        <v>65.20279264048071</v>
       </c>
       <c r="R3" t="n">
-        <v>155.5936088975356</v>
+        <v>159.9255994603549</v>
       </c>
       <c r="S3" t="n">
-        <v>208.3819030908814</v>
+        <v>209.6778892475315</v>
       </c>
       <c r="T3" t="n">
-        <v>230.1732865992993</v>
+        <v>230.4545171253824</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6508274585269</v>
+        <v>249.6554177282671</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -27551,49 +27551,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.250603464539</v>
+        <v>169.3090980494251</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7218531446305</v>
+        <v>168.2419231811629</v>
       </c>
       <c r="I4" t="n">
-        <v>168.2233735905427</v>
+        <v>169.9824652887527</v>
       </c>
       <c r="J4" t="n">
-        <v>133.427194649778</v>
+        <v>137.5627618012226</v>
       </c>
       <c r="K4" t="n">
-        <v>89.34902992251145</v>
+        <v>96.14503714836491</v>
       </c>
       <c r="L4" t="n">
-        <v>63.42832505831589</v>
+        <v>72.12487452401287</v>
       </c>
       <c r="M4" t="n">
-        <v>60.19015695232082</v>
+        <v>69.35944901768788</v>
       </c>
       <c r="N4" t="n">
-        <v>47.78758048940401</v>
+        <v>56.73884728383211</v>
       </c>
       <c r="O4" t="n">
-        <v>73.019086697924</v>
+        <v>81.28703038709219</v>
       </c>
       <c r="P4" t="n">
-        <v>91.81114782298006</v>
+        <v>98.88580198047258</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9970210107205</v>
+        <v>157.895144841498</v>
       </c>
       <c r="R4" t="n">
-        <v>221.7828567288786</v>
+        <v>224.4129859729374</v>
       </c>
       <c r="S4" t="n">
-        <v>243.9747107992991</v>
+        <v>244.9941118831771</v>
       </c>
       <c r="T4" t="n">
-        <v>218.1559507844908</v>
+        <v>218.4058821926404</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2204648267885</v>
+        <v>291.2236554405096</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -27870,16 +27870,16 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>348.3932585555301</v>
+        <v>348.766663618974</v>
       </c>
       <c r="I8" t="n">
-        <v>248.5166188045319</v>
+        <v>249.9222771673705</v>
       </c>
       <c r="J8" t="n">
-        <v>90.67542824598098</v>
+        <v>93.77000049091893</v>
       </c>
       <c r="K8" t="n">
-        <v>42.5588432808045</v>
+        <v>47.19680489086682</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -27894,22 +27894,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>34.01646518147888</v>
+        <v>39.2595863707439</v>
       </c>
       <c r="Q8" t="n">
-        <v>104.3382672065391</v>
+        <v>108.2756328645375</v>
       </c>
       <c r="R8" t="n">
-        <v>201.8898204488763</v>
+        <v>204.1801566692163</v>
       </c>
       <c r="S8" t="n">
-        <v>232.4490946716583</v>
+        <v>233.2799471440838</v>
       </c>
       <c r="T8" t="n">
-        <v>218.802265886147</v>
+        <v>218.9618734208938</v>
       </c>
       <c r="U8" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7818563658271</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -27946,19 +27946,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>160.948794407391</v>
+        <v>160.968302702022</v>
       </c>
       <c r="H9" t="n">
-        <v>137.1112742977616</v>
+        <v>137.2996833538022</v>
       </c>
       <c r="I9" t="n">
-        <v>114.6725073984828</v>
+        <v>115.3441745601174</v>
       </c>
       <c r="J9" t="n">
-        <v>75.2064110293488</v>
+        <v>77.04951705849162</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3552948050415807</v>
+        <v>3.505456574455792</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -27976,19 +27976,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>45.37972027109998</v>
+        <v>47.86993696819729</v>
       </c>
       <c r="R9" t="n">
-        <v>150.2837834742034</v>
+        <v>151.4950089952352</v>
       </c>
       <c r="S9" t="n">
-        <v>206.7933815687133</v>
+        <v>207.155739585213</v>
       </c>
       <c r="T9" t="n">
-        <v>229.8285755535207</v>
+        <v>229.9072076709146</v>
       </c>
       <c r="U9" t="n">
-        <v>249.64520105408</v>
+        <v>249.6464844945162</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -28025,49 +28025,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.1789052395657</v>
+        <v>169.1952603384582</v>
       </c>
       <c r="H10" t="n">
-        <v>167.0843907444132</v>
+        <v>167.229802441839</v>
       </c>
       <c r="I10" t="n">
-        <v>166.0672124249817</v>
+        <v>166.5590548534935</v>
       </c>
       <c r="J10" t="n">
-        <v>128.3581301441649</v>
+        <v>129.5144356358626</v>
       </c>
       <c r="K10" t="n">
-        <v>81.01899978470318</v>
+        <v>82.91916491057385</v>
       </c>
       <c r="L10" t="n">
-        <v>52.76875441092022</v>
+        <v>55.200311568079</v>
       </c>
       <c r="M10" t="n">
-        <v>48.95113428673177</v>
+        <v>51.51487037948515</v>
       </c>
       <c r="N10" t="n">
-        <v>36.81579666235183</v>
+        <v>39.31857284105146</v>
       </c>
       <c r="O10" t="n">
-        <v>62.88486849896913</v>
+        <v>65.19658738606127</v>
       </c>
       <c r="P10" t="n">
-        <v>83.13957341348075</v>
+        <v>85.11764828316647</v>
       </c>
       <c r="Q10" t="n">
-        <v>146.9932723722735</v>
+        <v>148.3627888804421</v>
       </c>
       <c r="R10" t="n">
-        <v>218.5590438132605</v>
+        <v>219.2944285325528</v>
       </c>
       <c r="S10" t="n">
-        <v>242.7252062786279</v>
+        <v>243.0102310475085</v>
       </c>
       <c r="T10" t="n">
-        <v>217.8496038232412</v>
+        <v>217.9194847003273</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2165540145173</v>
+        <v>291.2174461108205</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.373486630347197</v>
+        <v>1.243082987476487</v>
       </c>
       <c r="H2" t="n">
-        <v>14.06621995304324</v>
+        <v>12.73072364549357</v>
       </c>
       <c r="I2" t="n">
-        <v>52.95134331646037</v>
+        <v>47.9239568746873</v>
       </c>
       <c r="J2" t="n">
-        <v>116.5729608924305</v>
+        <v>105.5051147083326</v>
       </c>
       <c r="K2" t="n">
-        <v>174.7126499550274</v>
+        <v>158.1248175682123</v>
       </c>
       <c r="L2" t="n">
-        <v>216.7464914185155</v>
+        <v>196.1678185461958</v>
       </c>
       <c r="M2" t="n">
-        <v>241.1722342809525</v>
+        <v>218.2744956247308</v>
       </c>
       <c r="N2" t="n">
-        <v>245.0746531694265</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O2" t="n">
-        <v>231.4170454889115</v>
+        <v>209.4454987061791</v>
       </c>
       <c r="P2" t="n">
-        <v>197.509094302215</v>
+        <v>178.7568874528532</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.321104352906</v>
+        <v>134.2389779638515</v>
       </c>
       <c r="R2" t="n">
-        <v>86.27727954354719</v>
+        <v>78.08581171206993</v>
       </c>
       <c r="S2" t="n">
-        <v>31.29832658903679</v>
+        <v>28.32675357712047</v>
       </c>
       <c r="T2" t="n">
-        <v>6.012437724344859</v>
+        <v>5.441595777678323</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1098789304277757</v>
+        <v>0.09944663899811891</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7348801343409561</v>
+        <v>0.6651080342898962</v>
       </c>
       <c r="H3" t="n">
-        <v>7.09739498166134</v>
+        <v>6.423543383799788</v>
       </c>
       <c r="I3" t="n">
-        <v>25.30179409901977</v>
+        <v>22.89955293498108</v>
       </c>
       <c r="J3" t="n">
-        <v>69.4300569028006</v>
+        <v>62.83812353788884</v>
       </c>
       <c r="K3" t="n">
-        <v>118.6670259036447</v>
+        <v>107.4003618353119</v>
       </c>
       <c r="L3" t="n">
-        <v>159.5624607480221</v>
+        <v>144.4130405154444</v>
       </c>
       <c r="M3" t="n">
-        <v>186.2018656178817</v>
+        <v>168.5232067584531</v>
       </c>
       <c r="N3" t="n">
-        <v>191.1300749398437</v>
+        <v>172.9835145848972</v>
       </c>
       <c r="O3" t="n">
-        <v>174.8466782789204</v>
+        <v>158.2461207724737</v>
       </c>
       <c r="P3" t="n">
-        <v>140.3298740742831</v>
+        <v>127.0064631443575</v>
       </c>
       <c r="Q3" t="n">
-        <v>93.80680451692626</v>
+        <v>84.90045714900501</v>
       </c>
       <c r="R3" t="n">
-        <v>45.62703149881833</v>
+        <v>41.295040935999</v>
       </c>
       <c r="S3" t="n">
-        <v>13.65007617953485</v>
+        <v>12.35409002288469</v>
       </c>
       <c r="T3" t="n">
-        <v>2.962082646751484</v>
+        <v>2.680852120668484</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04834737725927345</v>
+        <v>0.04375710751907214</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6160988184077902</v>
+        <v>0.5576042335217277</v>
       </c>
       <c r="H4" t="n">
-        <v>5.477678585480175</v>
+        <v>4.957608548947729</v>
       </c>
       <c r="I4" t="n">
-        <v>18.52777173902701</v>
+        <v>16.76868004081705</v>
       </c>
       <c r="J4" t="n">
-        <v>43.55818646143077</v>
+        <v>39.42261930998615</v>
       </c>
       <c r="K4" t="n">
-        <v>71.57948090228689</v>
+        <v>64.78347367643343</v>
       </c>
       <c r="L4" t="n">
-        <v>91.59709160219094</v>
+        <v>82.90054213649397</v>
       </c>
       <c r="M4" t="n">
-        <v>96.57629023459569</v>
+        <v>87.40699816922863</v>
       </c>
       <c r="N4" t="n">
-        <v>94.27992191143946</v>
+        <v>85.32865511701135</v>
       </c>
       <c r="O4" t="n">
-        <v>87.08276753276661</v>
+        <v>78.81482384359842</v>
       </c>
       <c r="P4" t="n">
-        <v>74.51435163724763</v>
+        <v>67.43969747975511</v>
       </c>
       <c r="Q4" t="n">
-        <v>51.5898746941287</v>
+        <v>46.69175086335122</v>
       </c>
       <c r="R4" t="n">
-        <v>27.70204323495391</v>
+        <v>25.07191399089513</v>
       </c>
       <c r="S4" t="n">
-        <v>10.73692213534303</v>
+        <v>9.717521051465013</v>
       </c>
       <c r="T4" t="n">
-        <v>2.632422224106012</v>
+        <v>2.382490815956472</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03360539009497042</v>
+        <v>0.03041477637391245</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.5333255238464</v>
+        <v>1.496864636411381</v>
       </c>
       <c r="H8" t="n">
-        <v>15.70317002109195</v>
+        <v>15.32976495764806</v>
       </c>
       <c r="I8" t="n">
-        <v>59.11353225808841</v>
+        <v>57.70787389524983</v>
       </c>
       <c r="J8" t="n">
-        <v>130.1390871795585</v>
+        <v>127.0445149346206</v>
       </c>
       <c r="K8" t="n">
-        <v>195.0447566039767</v>
+        <v>190.4067949939144</v>
       </c>
       <c r="L8" t="n">
-        <v>241.970267604391</v>
+        <v>236.2164661104893</v>
       </c>
       <c r="M8" t="n">
-        <v>269.2385453890944</v>
+        <v>262.8363325882701</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5951065337231</v>
+        <v>267.089299236474</v>
       </c>
       <c r="O8" t="n">
-        <v>258.3481008559754</v>
+        <v>252.2048515081583</v>
       </c>
       <c r="P8" t="n">
-        <v>220.4941269860173</v>
+        <v>215.2510057967523</v>
       </c>
       <c r="Q8" t="n">
-        <v>165.5819066632681</v>
+        <v>161.6445410052697</v>
       </c>
       <c r="R8" t="n">
-        <v>96.31775943731652</v>
+        <v>94.02742321697652</v>
       </c>
       <c r="S8" t="n">
-        <v>34.94065537464989</v>
+        <v>34.10980290222439</v>
       </c>
       <c r="T8" t="n">
-        <v>6.712132480637621</v>
+        <v>6.552524945890824</v>
       </c>
       <c r="U8" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1197491709129105</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8204014819334779</v>
+        <v>0.8008931873025619</v>
       </c>
       <c r="H9" t="n">
-        <v>7.923351154462802</v>
+        <v>7.734942098422112</v>
       </c>
       <c r="I9" t="n">
-        <v>28.2462790928851</v>
+        <v>27.57461193125049</v>
       </c>
       <c r="J9" t="n">
-        <v>77.50994878214496</v>
+        <v>75.66684275300214</v>
       </c>
       <c r="K9" t="n">
-        <v>132.476848071688</v>
+        <v>129.3266863022738</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1314708908633</v>
+        <v>173.8956896377778</v>
       </c>
       <c r="M9" t="n">
-        <v>207.8710246109518</v>
+        <v>202.9280676774956</v>
       </c>
       <c r="N9" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>195.1943824142341</v>
+        <v>190.5528628579038</v>
       </c>
       <c r="P9" t="n">
-        <v>156.6607005281569</v>
+        <v>152.9354718806094</v>
       </c>
       <c r="Q9" t="n">
-        <v>104.7235295183857</v>
+        <v>102.2333128212884</v>
       </c>
       <c r="R9" t="n">
-        <v>50.93685692215052</v>
+        <v>49.72563140111873</v>
       </c>
       <c r="S9" t="n">
-        <v>15.23859770170297</v>
+        <v>14.87623968520328</v>
       </c>
       <c r="T9" t="n">
-        <v>3.306793692530114</v>
+        <v>3.228161575136202</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.05269034126990541</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6877970433811009</v>
+        <v>0.6714419444886303</v>
       </c>
       <c r="H10" t="n">
-        <v>6.115140985697429</v>
+        <v>5.969729288271644</v>
       </c>
       <c r="I10" t="n">
-        <v>20.68393290458802</v>
+        <v>20.19209047607627</v>
       </c>
       <c r="J10" t="n">
-        <v>48.62725096704384</v>
+        <v>47.47094547534616</v>
       </c>
       <c r="K10" t="n">
-        <v>79.90951104009515</v>
+        <v>78.00934591422448</v>
       </c>
       <c r="L10" t="n">
-        <v>102.2566622495866</v>
+        <v>99.82510509242783</v>
       </c>
       <c r="M10" t="n">
-        <v>107.8153129001847</v>
+        <v>105.2515768074314</v>
       </c>
       <c r="N10" t="n">
-        <v>105.2517057384916</v>
+        <v>102.748929559792</v>
       </c>
       <c r="O10" t="n">
-        <v>97.21698573172148</v>
+        <v>94.90526684462934</v>
       </c>
       <c r="P10" t="n">
-        <v>83.18592604674694</v>
+        <v>81.20785117706122</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.59362333257565</v>
+        <v>56.22410682440704</v>
       </c>
       <c r="R10" t="n">
-        <v>30.92585615057204</v>
+        <v>30.19047143127968</v>
       </c>
       <c r="S10" t="n">
-        <v>11.98642665601427</v>
+        <v>11.70140188713367</v>
       </c>
       <c r="T10" t="n">
-        <v>2.938769185355612</v>
+        <v>2.868888308269602</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03751620236624191</v>
+        <v>0.03662410606301624</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91101349587286</v>
       </c>
       <c r="H11" t="n">
-        <v>19.25719494026835</v>
+        <v>19.57116696460793</v>
       </c>
       <c r="I11" t="n">
-        <v>72.49242113362098</v>
+        <v>73.67434779963848</v>
       </c>
       <c r="J11" t="n">
-        <v>159.5928572255927</v>
+        <v>162.1948816953393</v>
       </c>
       <c r="K11" t="n">
-        <v>239.188322800748</v>
+        <v>243.0880829756375</v>
       </c>
       <c r="L11" t="n">
-        <v>296.7342649126228</v>
+        <v>301.5722622499565</v>
       </c>
       <c r="M11" t="n">
-        <v>330.174044287113</v>
+        <v>335.5572485071855</v>
       </c>
       <c r="N11" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O11" t="n">
-        <v>316.8188164523022</v>
+        <v>321.9842751527485</v>
       </c>
       <c r="P11" t="n">
-        <v>270.397529979667</v>
+        <v>274.8061294733873</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.0572840332874</v>
+        <v>206.3679586524404</v>
       </c>
       <c r="R11" t="n">
-        <v>118.1169067903461</v>
+        <v>120.0427015101236</v>
       </c>
       <c r="S11" t="n">
-        <v>42.8486102479058</v>
+        <v>43.54722003720283</v>
       </c>
       <c r="T11" t="n">
-        <v>8.231257986185739</v>
+        <v>8.365461578183448</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1528810796698287</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.006079106680871</v>
+        <v>1.022482362438012</v>
       </c>
       <c r="H12" t="n">
-        <v>9.716606109259992</v>
+        <v>9.875027026703963</v>
       </c>
       <c r="I12" t="n">
-        <v>34.63912713791596</v>
+        <v>35.20388835587017</v>
       </c>
       <c r="J12" t="n">
-        <v>95.05241244303791</v>
+        <v>96.60216039156678</v>
       </c>
       <c r="K12" t="n">
-        <v>162.4597125906563</v>
+        <v>165.1084786749136</v>
       </c>
       <c r="L12" t="n">
         <v>202.635780428066</v>
@@ -31858,22 +31858,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>192.1169830994376</v>
+        <v>195.2492855080096</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.425115442281</v>
+        <v>130.5189766508593</v>
       </c>
       <c r="R12" t="n">
-        <v>62.46515716743164</v>
+        <v>63.48359790645837</v>
       </c>
       <c r="S12" t="n">
-        <v>18.68747814383108</v>
+        <v>18.99216142510956</v>
       </c>
       <c r="T12" t="n">
-        <v>4.055204820349649</v>
+        <v>4.121321452107601</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06726857647618505</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8572148652593632</v>
       </c>
       <c r="H13" t="n">
-        <v>7.499152202429723</v>
+        <v>7.621419438396889</v>
       </c>
       <c r="I13" t="n">
-        <v>25.36523055791157</v>
+        <v>25.77878885707249</v>
       </c>
       <c r="J13" t="n">
-        <v>59.632828914413</v>
+        <v>60.60509097383697</v>
       </c>
       <c r="K13" t="n">
-        <v>97.9950563875785</v>
+        <v>99.59278161831507</v>
       </c>
       <c r="L13" t="n">
-        <v>125.3999336590344</v>
+        <v>127.444471876833</v>
       </c>
       <c r="M13" t="n">
-        <v>132.2166476753534</v>
+        <v>134.3723265606109</v>
       </c>
       <c r="N13" t="n">
-        <v>129.0728313123717</v>
+        <v>131.177252971917</v>
       </c>
       <c r="O13" t="n">
-        <v>119.2196507600995</v>
+        <v>121.1634247732053</v>
       </c>
       <c r="P13" t="n">
-        <v>102.013007056365</v>
+        <v>103.6762415219142</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.62851834006149</v>
+        <v>71.7800556718545</v>
       </c>
       <c r="R13" t="n">
-        <v>37.92516032026317</v>
+        <v>38.54349748702554</v>
       </c>
       <c r="S13" t="n">
-        <v>14.69925845813677</v>
+        <v>14.93891724274726</v>
       </c>
       <c r="T13" t="n">
-        <v>3.60388705024741</v>
+        <v>3.662645333380914</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04675717446869259</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91101349587286</v>
       </c>
       <c r="H14" t="n">
-        <v>19.25719494026835</v>
+        <v>19.57116696460793</v>
       </c>
       <c r="I14" t="n">
-        <v>72.49242113362098</v>
+        <v>73.67434779963848</v>
       </c>
       <c r="J14" t="n">
-        <v>159.5928572255927</v>
+        <v>162.1948816953393</v>
       </c>
       <c r="K14" t="n">
-        <v>239.188322800748</v>
+        <v>243.0880829756375</v>
       </c>
       <c r="L14" t="n">
-        <v>296.7342649126228</v>
+        <v>301.5722622499565</v>
       </c>
       <c r="M14" t="n">
-        <v>330.174044287113</v>
+        <v>335.5572485071855</v>
       </c>
       <c r="N14" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O14" t="n">
-        <v>316.8188164523022</v>
+        <v>321.9842751527485</v>
       </c>
       <c r="P14" t="n">
-        <v>270.397529979667</v>
+        <v>274.8061294733873</v>
       </c>
       <c r="Q14" t="n">
-        <v>203.0572840332874</v>
+        <v>206.3679586524404</v>
       </c>
       <c r="R14" t="n">
-        <v>118.1169067903461</v>
+        <v>120.0427015101236</v>
       </c>
       <c r="S14" t="n">
-        <v>42.8486102479058</v>
+        <v>43.54722003720283</v>
       </c>
       <c r="T14" t="n">
-        <v>8.231257986185739</v>
+        <v>8.365461578183448</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1528810796698287</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.006079106680871</v>
+        <v>1.022482362438012</v>
       </c>
       <c r="H15" t="n">
-        <v>9.716606109259992</v>
+        <v>9.875027026703963</v>
       </c>
       <c r="I15" t="n">
-        <v>34.63912713791596</v>
+        <v>35.20388835587017</v>
       </c>
       <c r="J15" t="n">
-        <v>95.05241244303791</v>
+        <v>96.60216039156678</v>
       </c>
       <c r="K15" t="n">
-        <v>162.4597125906563</v>
+        <v>165.1084786749136</v>
       </c>
       <c r="L15" t="n">
         <v>202.635780428066</v>
@@ -32095,22 +32095,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>192.1169830994376</v>
+        <v>195.2492855080096</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.425115442281</v>
+        <v>130.5189766508593</v>
       </c>
       <c r="R15" t="n">
-        <v>62.46515716743164</v>
+        <v>63.48359790645837</v>
       </c>
       <c r="S15" t="n">
-        <v>18.68747814383108</v>
+        <v>18.99216142510956</v>
       </c>
       <c r="T15" t="n">
-        <v>4.055204820349649</v>
+        <v>4.121321452107601</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06726857647618505</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8572148652593632</v>
       </c>
       <c r="H16" t="n">
-        <v>7.499152202429723</v>
+        <v>7.621419438396889</v>
       </c>
       <c r="I16" t="n">
-        <v>25.36523055791157</v>
+        <v>25.77878885707249</v>
       </c>
       <c r="J16" t="n">
-        <v>59.632828914413</v>
+        <v>60.60509097383697</v>
       </c>
       <c r="K16" t="n">
-        <v>97.9950563875785</v>
+        <v>99.59278161831507</v>
       </c>
       <c r="L16" t="n">
-        <v>125.3999336590344</v>
+        <v>127.444471876833</v>
       </c>
       <c r="M16" t="n">
-        <v>132.2166476753534</v>
+        <v>134.3723265606109</v>
       </c>
       <c r="N16" t="n">
-        <v>129.0728313123717</v>
+        <v>131.177252971917</v>
       </c>
       <c r="O16" t="n">
-        <v>119.2196507600995</v>
+        <v>121.1634247732053</v>
       </c>
       <c r="P16" t="n">
-        <v>102.013007056365</v>
+        <v>103.6762415219142</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.62851834006149</v>
+        <v>71.7800556718545</v>
       </c>
       <c r="R16" t="n">
-        <v>37.92516032026317</v>
+        <v>38.54349748702554</v>
       </c>
       <c r="S16" t="n">
-        <v>14.69925845813677</v>
+        <v>14.93891724274726</v>
       </c>
       <c r="T16" t="n">
-        <v>3.60388705024741</v>
+        <v>3.662645333380914</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04675717446869259</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91101349587286</v>
       </c>
       <c r="H17" t="n">
-        <v>19.25719494026835</v>
+        <v>19.57116696460793</v>
       </c>
       <c r="I17" t="n">
-        <v>72.49242113362098</v>
+        <v>73.67434779963848</v>
       </c>
       <c r="J17" t="n">
-        <v>159.5928572255927</v>
+        <v>162.1948816953393</v>
       </c>
       <c r="K17" t="n">
-        <v>239.188322800748</v>
+        <v>243.0880829756375</v>
       </c>
       <c r="L17" t="n">
-        <v>296.7342649126228</v>
+        <v>301.5722622499565</v>
       </c>
       <c r="M17" t="n">
-        <v>330.174044287113</v>
+        <v>335.5572485071855</v>
       </c>
       <c r="N17" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O17" t="n">
-        <v>316.8188164523022</v>
+        <v>321.9842751527485</v>
       </c>
       <c r="P17" t="n">
-        <v>270.397529979667</v>
+        <v>274.8061294733873</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.0572840332874</v>
+        <v>206.3679586524404</v>
       </c>
       <c r="R17" t="n">
-        <v>118.1169067903461</v>
+        <v>120.0427015101236</v>
       </c>
       <c r="S17" t="n">
-        <v>42.8486102479058</v>
+        <v>43.54722003720283</v>
       </c>
       <c r="T17" t="n">
-        <v>8.231257986185739</v>
+        <v>8.365461578183448</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1528810796698287</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.006079106680871</v>
+        <v>1.022482362438012</v>
       </c>
       <c r="H18" t="n">
-        <v>9.716606109259992</v>
+        <v>9.875027026703963</v>
       </c>
       <c r="I18" t="n">
-        <v>34.63912713791596</v>
+        <v>35.20388835587017</v>
       </c>
       <c r="J18" t="n">
-        <v>95.05241244303791</v>
+        <v>96.60216039156678</v>
       </c>
       <c r="K18" t="n">
-        <v>162.4597125906563</v>
+        <v>165.1084786749136</v>
       </c>
       <c r="L18" t="n">
         <v>202.635780428066</v>
@@ -32332,22 +32332,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>192.1169830994376</v>
+        <v>195.2492855080096</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.425115442281</v>
+        <v>130.5189766508593</v>
       </c>
       <c r="R18" t="n">
-        <v>62.46515716743164</v>
+        <v>63.48359790645837</v>
       </c>
       <c r="S18" t="n">
-        <v>18.68747814383108</v>
+        <v>18.99216142510956</v>
       </c>
       <c r="T18" t="n">
-        <v>4.055204820349649</v>
+        <v>4.121321452107601</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06726857647618505</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8572148652593632</v>
       </c>
       <c r="H19" t="n">
-        <v>7.499152202429723</v>
+        <v>7.621419438396889</v>
       </c>
       <c r="I19" t="n">
-        <v>25.36523055791157</v>
+        <v>25.77878885707249</v>
       </c>
       <c r="J19" t="n">
-        <v>59.632828914413</v>
+        <v>60.60509097383697</v>
       </c>
       <c r="K19" t="n">
-        <v>97.9950563875785</v>
+        <v>99.59278161831507</v>
       </c>
       <c r="L19" t="n">
-        <v>125.3999336590344</v>
+        <v>127.444471876833</v>
       </c>
       <c r="M19" t="n">
-        <v>132.2166476753534</v>
+        <v>134.3723265606109</v>
       </c>
       <c r="N19" t="n">
-        <v>129.0728313123717</v>
+        <v>131.177252971917</v>
       </c>
       <c r="O19" t="n">
-        <v>119.2196507600995</v>
+        <v>121.1634247732053</v>
       </c>
       <c r="P19" t="n">
-        <v>102.013007056365</v>
+        <v>103.6762415219142</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.62851834006149</v>
+        <v>71.7800556718545</v>
       </c>
       <c r="R19" t="n">
-        <v>37.92516032026317</v>
+        <v>38.54349748702554</v>
       </c>
       <c r="S19" t="n">
-        <v>14.69925845813677</v>
+        <v>14.93891724274726</v>
       </c>
       <c r="T19" t="n">
-        <v>3.60388705024741</v>
+        <v>3.662645333380914</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04675717446869259</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91101349587286</v>
       </c>
       <c r="H20" t="n">
-        <v>19.25719494026835</v>
+        <v>19.57116696460793</v>
       </c>
       <c r="I20" t="n">
-        <v>72.49242113362098</v>
+        <v>73.67434779963848</v>
       </c>
       <c r="J20" t="n">
-        <v>159.5928572255927</v>
+        <v>162.1948816953393</v>
       </c>
       <c r="K20" t="n">
-        <v>239.188322800748</v>
+        <v>243.0880829756375</v>
       </c>
       <c r="L20" t="n">
-        <v>296.7342649126228</v>
+        <v>301.5722622499565</v>
       </c>
       <c r="M20" t="n">
-        <v>330.174044287113</v>
+        <v>335.5572485071855</v>
       </c>
       <c r="N20" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O20" t="n">
-        <v>316.8188164523022</v>
+        <v>321.9842751527485</v>
       </c>
       <c r="P20" t="n">
-        <v>270.397529979667</v>
+        <v>274.8061294733873</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.0572840332874</v>
+        <v>206.3679586524404</v>
       </c>
       <c r="R20" t="n">
-        <v>118.1169067903461</v>
+        <v>120.0427015101236</v>
       </c>
       <c r="S20" t="n">
-        <v>42.8486102479058</v>
+        <v>43.54722003720283</v>
       </c>
       <c r="T20" t="n">
-        <v>8.231257986185739</v>
+        <v>8.365461578183448</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1528810796698287</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.006079106680871</v>
+        <v>1.022482362438012</v>
       </c>
       <c r="H21" t="n">
-        <v>9.716606109259992</v>
+        <v>9.875027026703963</v>
       </c>
       <c r="I21" t="n">
-        <v>34.63912713791596</v>
+        <v>35.20388835587017</v>
       </c>
       <c r="J21" t="n">
-        <v>95.05241244303791</v>
+        <v>96.60216039156678</v>
       </c>
       <c r="K21" t="n">
-        <v>162.4597125906563</v>
+        <v>165.1084786749136</v>
       </c>
       <c r="L21" t="n">
         <v>202.635780428066</v>
@@ -32569,22 +32569,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>192.1169830994376</v>
+        <v>195.2492855080096</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.425115442281</v>
+        <v>130.5189766508593</v>
       </c>
       <c r="R21" t="n">
-        <v>62.46515716743164</v>
+        <v>63.48359790645837</v>
       </c>
       <c r="S21" t="n">
-        <v>18.68747814383108</v>
+        <v>18.99216142510956</v>
       </c>
       <c r="T21" t="n">
-        <v>4.055204820349649</v>
+        <v>4.121321452107601</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06726857647618505</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8572148652593632</v>
       </c>
       <c r="H22" t="n">
-        <v>7.499152202429723</v>
+        <v>7.621419438396889</v>
       </c>
       <c r="I22" t="n">
-        <v>25.36523055791157</v>
+        <v>25.77878885707249</v>
       </c>
       <c r="J22" t="n">
-        <v>59.632828914413</v>
+        <v>60.60509097383697</v>
       </c>
       <c r="K22" t="n">
-        <v>97.9950563875785</v>
+        <v>99.59278161831507</v>
       </c>
       <c r="L22" t="n">
-        <v>125.3999336590344</v>
+        <v>127.444471876833</v>
       </c>
       <c r="M22" t="n">
-        <v>132.2166476753534</v>
+        <v>134.3723265606109</v>
       </c>
       <c r="N22" t="n">
-        <v>129.0728313123717</v>
+        <v>131.177252971917</v>
       </c>
       <c r="O22" t="n">
-        <v>119.2196507600995</v>
+        <v>121.1634247732053</v>
       </c>
       <c r="P22" t="n">
-        <v>102.013007056365</v>
+        <v>103.6762415219142</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.62851834006149</v>
+        <v>71.7800556718545</v>
       </c>
       <c r="R22" t="n">
-        <v>37.92516032026317</v>
+        <v>38.54349748702554</v>
       </c>
       <c r="S22" t="n">
-        <v>14.69925845813677</v>
+        <v>14.93891724274726</v>
       </c>
       <c r="T22" t="n">
-        <v>3.60388705024741</v>
+        <v>3.662645333380914</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04675717446869259</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91101349587286</v>
       </c>
       <c r="H23" t="n">
-        <v>19.25719494026835</v>
+        <v>19.57116696460793</v>
       </c>
       <c r="I23" t="n">
-        <v>72.49242113362098</v>
+        <v>73.67434779963848</v>
       </c>
       <c r="J23" t="n">
-        <v>159.5928572255927</v>
+        <v>162.1948816953393</v>
       </c>
       <c r="K23" t="n">
-        <v>239.188322800748</v>
+        <v>243.0880829756375</v>
       </c>
       <c r="L23" t="n">
-        <v>296.7342649126228</v>
+        <v>301.5722622499565</v>
       </c>
       <c r="M23" t="n">
-        <v>330.174044287113</v>
+        <v>335.5572485071855</v>
       </c>
       <c r="N23" t="n">
-        <v>335.5166055100142</v>
+        <v>340.9869156023343</v>
       </c>
       <c r="O23" t="n">
-        <v>316.8188164523022</v>
+        <v>321.9842751527485</v>
       </c>
       <c r="P23" t="n">
-        <v>270.397529979667</v>
+        <v>274.8061294733873</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.0572840332874</v>
+        <v>206.3679586524404</v>
       </c>
       <c r="R23" t="n">
-        <v>118.1169067903461</v>
+        <v>120.0427015101236</v>
       </c>
       <c r="S23" t="n">
-        <v>42.8486102479058</v>
+        <v>43.54722003720283</v>
       </c>
       <c r="T23" t="n">
-        <v>8.231257986185739</v>
+        <v>8.365461578183448</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1528810796698287</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.006079106680871</v>
+        <v>1.022482362438012</v>
       </c>
       <c r="H24" t="n">
-        <v>9.716606109259992</v>
+        <v>9.875027026703963</v>
       </c>
       <c r="I24" t="n">
-        <v>34.63912713791596</v>
+        <v>35.20388835587017</v>
       </c>
       <c r="J24" t="n">
-        <v>95.05241244303791</v>
+        <v>96.60216039156678</v>
       </c>
       <c r="K24" t="n">
-        <v>162.4597125906563</v>
+        <v>165.1084786749136</v>
       </c>
       <c r="L24" t="n">
-        <v>202.635780428066</v>
+        <v>207.8850678903933</v>
       </c>
       <c r="M24" t="n">
-        <v>207.8710246109518</v>
+        <v>213.3413347032719</v>
       </c>
       <c r="N24" t="n">
-        <v>192.087253921875</v>
+        <v>197.557564014195</v>
       </c>
       <c r="O24" t="n">
-        <v>208.5470075</v>
+        <v>214.01731759232</v>
       </c>
       <c r="P24" t="n">
-        <v>192.1169830994376</v>
+        <v>195.2492855080096</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.425115442281</v>
+        <v>130.5189766508593</v>
       </c>
       <c r="R24" t="n">
-        <v>62.46515716743164</v>
+        <v>63.48359790645837</v>
       </c>
       <c r="S24" t="n">
-        <v>18.68747814383108</v>
+        <v>18.99216142510956</v>
       </c>
       <c r="T24" t="n">
-        <v>4.055204820349649</v>
+        <v>4.121321452107601</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06726857647618505</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8572148652593632</v>
       </c>
       <c r="H25" t="n">
-        <v>7.499152202429723</v>
+        <v>7.621419438396889</v>
       </c>
       <c r="I25" t="n">
-        <v>25.36523055791157</v>
+        <v>25.77878885707249</v>
       </c>
       <c r="J25" t="n">
-        <v>59.632828914413</v>
+        <v>60.60509097383697</v>
       </c>
       <c r="K25" t="n">
-        <v>97.9950563875785</v>
+        <v>99.59278161831507</v>
       </c>
       <c r="L25" t="n">
-        <v>125.3999336590344</v>
+        <v>127.444471876833</v>
       </c>
       <c r="M25" t="n">
-        <v>132.2166476753534</v>
+        <v>134.3723265606109</v>
       </c>
       <c r="N25" t="n">
-        <v>129.0728313123717</v>
+        <v>131.177252971917</v>
       </c>
       <c r="O25" t="n">
-        <v>119.2196507600995</v>
+        <v>121.1634247732053</v>
       </c>
       <c r="P25" t="n">
-        <v>102.013007056365</v>
+        <v>103.6762415219142</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.62851834006149</v>
+        <v>71.7800556718545</v>
       </c>
       <c r="R25" t="n">
-        <v>37.92516032026317</v>
+        <v>38.54349748702554</v>
       </c>
       <c r="S25" t="n">
-        <v>14.69925845813677</v>
+        <v>14.93891724274726</v>
       </c>
       <c r="T25" t="n">
-        <v>3.60388705024741</v>
+        <v>3.662645333380914</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04675717446869259</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91101349587286</v>
       </c>
       <c r="H26" t="n">
-        <v>19.25719494026835</v>
+        <v>19.57116696460793</v>
       </c>
       <c r="I26" t="n">
-        <v>72.49242113362098</v>
+        <v>73.67434779963848</v>
       </c>
       <c r="J26" t="n">
-        <v>159.5928572255927</v>
+        <v>162.1948816953393</v>
       </c>
       <c r="K26" t="n">
-        <v>239.188322800748</v>
+        <v>243.0880829756375</v>
       </c>
       <c r="L26" t="n">
-        <v>296.7342649126228</v>
+        <v>301.5722622499565</v>
       </c>
       <c r="M26" t="n">
-        <v>330.174044287113</v>
+        <v>335.5572485071855</v>
       </c>
       <c r="N26" t="n">
-        <v>335.5166055100142</v>
+        <v>340.9869156023343</v>
       </c>
       <c r="O26" t="n">
-        <v>316.8188164523022</v>
+        <v>321.9842751527485</v>
       </c>
       <c r="P26" t="n">
-        <v>270.397529979667</v>
+        <v>274.8061294733873</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.0572840332874</v>
+        <v>206.3679586524404</v>
       </c>
       <c r="R26" t="n">
-        <v>118.1169067903461</v>
+        <v>120.0427015101236</v>
       </c>
       <c r="S26" t="n">
-        <v>42.8486102479058</v>
+        <v>43.54722003720283</v>
       </c>
       <c r="T26" t="n">
-        <v>8.231257986185739</v>
+        <v>8.365461578183448</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1528810796698287</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.006079106680871</v>
+        <v>1.022482362438012</v>
       </c>
       <c r="H27" t="n">
-        <v>9.716606109259992</v>
+        <v>9.875027026703963</v>
       </c>
       <c r="I27" t="n">
-        <v>34.63912713791596</v>
+        <v>35.20388835587017</v>
       </c>
       <c r="J27" t="n">
-        <v>95.05241244303791</v>
+        <v>96.60216039156678</v>
       </c>
       <c r="K27" t="n">
-        <v>162.4597125906563</v>
+        <v>165.1084786749136</v>
       </c>
       <c r="L27" t="n">
-        <v>202.635780428066</v>
+        <v>207.8850678903933</v>
       </c>
       <c r="M27" t="n">
-        <v>207.8710246109518</v>
+        <v>213.3413347032719</v>
       </c>
       <c r="N27" t="n">
-        <v>192.087253921875</v>
+        <v>197.557564014195</v>
       </c>
       <c r="O27" t="n">
-        <v>208.5470075</v>
+        <v>214.01731759232</v>
       </c>
       <c r="P27" t="n">
-        <v>192.1169830994376</v>
+        <v>195.2492855080096</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.425115442281</v>
+        <v>130.5189766508593</v>
       </c>
       <c r="R27" t="n">
-        <v>62.46515716743164</v>
+        <v>63.48359790645837</v>
       </c>
       <c r="S27" t="n">
-        <v>18.68747814383108</v>
+        <v>18.99216142510956</v>
       </c>
       <c r="T27" t="n">
-        <v>4.055204820349649</v>
+        <v>4.121321452107601</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06726857647618505</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8572148652593632</v>
       </c>
       <c r="H28" t="n">
-        <v>7.499152202429723</v>
+        <v>7.621419438396889</v>
       </c>
       <c r="I28" t="n">
-        <v>25.36523055791157</v>
+        <v>25.77878885707249</v>
       </c>
       <c r="J28" t="n">
-        <v>59.632828914413</v>
+        <v>60.60509097383697</v>
       </c>
       <c r="K28" t="n">
-        <v>97.9950563875785</v>
+        <v>99.59278161831507</v>
       </c>
       <c r="L28" t="n">
-        <v>125.3999336590344</v>
+        <v>127.444471876833</v>
       </c>
       <c r="M28" t="n">
-        <v>132.2166476753534</v>
+        <v>134.3723265606109</v>
       </c>
       <c r="N28" t="n">
-        <v>129.0728313123717</v>
+        <v>131.177252971917</v>
       </c>
       <c r="O28" t="n">
-        <v>119.2196507600995</v>
+        <v>121.1634247732053</v>
       </c>
       <c r="P28" t="n">
-        <v>102.013007056365</v>
+        <v>103.6762415219142</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.62851834006149</v>
+        <v>71.7800556718545</v>
       </c>
       <c r="R28" t="n">
-        <v>37.92516032026317</v>
+        <v>38.54349748702554</v>
       </c>
       <c r="S28" t="n">
-        <v>14.69925845813677</v>
+        <v>14.93891724274726</v>
       </c>
       <c r="T28" t="n">
-        <v>3.60388705024741</v>
+        <v>3.662645333380914</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04675717446869259</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91101349587286</v>
       </c>
       <c r="H29" t="n">
-        <v>19.25719494026835</v>
+        <v>19.57116696460793</v>
       </c>
       <c r="I29" t="n">
-        <v>72.49242113362098</v>
+        <v>73.67434779963848</v>
       </c>
       <c r="J29" t="n">
-        <v>159.5928572255927</v>
+        <v>162.1948816953393</v>
       </c>
       <c r="K29" t="n">
-        <v>239.188322800748</v>
+        <v>243.0880829756375</v>
       </c>
       <c r="L29" t="n">
-        <v>296.7342649126228</v>
+        <v>301.5722622499565</v>
       </c>
       <c r="M29" t="n">
-        <v>330.174044287113</v>
+        <v>335.5572485071855</v>
       </c>
       <c r="N29" t="n">
-        <v>335.5166055100142</v>
+        <v>340.9869156023343</v>
       </c>
       <c r="O29" t="n">
-        <v>316.8188164523022</v>
+        <v>321.9842751527485</v>
       </c>
       <c r="P29" t="n">
-        <v>270.397529979667</v>
+        <v>274.8061294733873</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.0572840332874</v>
+        <v>206.3679586524404</v>
       </c>
       <c r="R29" t="n">
-        <v>118.1169067903461</v>
+        <v>120.0427015101236</v>
       </c>
       <c r="S29" t="n">
-        <v>42.8486102479058</v>
+        <v>43.54722003720283</v>
       </c>
       <c r="T29" t="n">
-        <v>8.231257986185739</v>
+        <v>8.365461578183448</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1528810796698287</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.006079106680871</v>
+        <v>1.022482362438012</v>
       </c>
       <c r="H30" t="n">
-        <v>9.716606109259992</v>
+        <v>9.875027026703963</v>
       </c>
       <c r="I30" t="n">
-        <v>34.63912713791596</v>
+        <v>35.20388835587017</v>
       </c>
       <c r="J30" t="n">
-        <v>95.05241244303791</v>
+        <v>96.60216039156678</v>
       </c>
       <c r="K30" t="n">
-        <v>162.4597125906563</v>
+        <v>165.1084786749136</v>
       </c>
       <c r="L30" t="n">
-        <v>202.635780428066</v>
+        <v>207.8850678903933</v>
       </c>
       <c r="M30" t="n">
-        <v>207.8710246109518</v>
+        <v>213.3413347032719</v>
       </c>
       <c r="N30" t="n">
-        <v>192.087253921875</v>
+        <v>197.557564014195</v>
       </c>
       <c r="O30" t="n">
-        <v>208.5470075</v>
+        <v>214.01731759232</v>
       </c>
       <c r="P30" t="n">
-        <v>192.1169830994376</v>
+        <v>195.2492855080096</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.425115442281</v>
+        <v>130.5189766508593</v>
       </c>
       <c r="R30" t="n">
-        <v>62.46515716743164</v>
+        <v>63.48359790645837</v>
       </c>
       <c r="S30" t="n">
-        <v>18.68747814383108</v>
+        <v>18.99216142510956</v>
       </c>
       <c r="T30" t="n">
-        <v>4.055204820349649</v>
+        <v>4.121321452107601</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06726857647618505</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8572148652593632</v>
       </c>
       <c r="H31" t="n">
-        <v>7.499152202429723</v>
+        <v>7.621419438396889</v>
       </c>
       <c r="I31" t="n">
-        <v>25.36523055791157</v>
+        <v>25.77878885707249</v>
       </c>
       <c r="J31" t="n">
-        <v>59.632828914413</v>
+        <v>60.60509097383697</v>
       </c>
       <c r="K31" t="n">
-        <v>97.9950563875785</v>
+        <v>99.59278161831507</v>
       </c>
       <c r="L31" t="n">
-        <v>125.3999336590344</v>
+        <v>127.444471876833</v>
       </c>
       <c r="M31" t="n">
-        <v>132.2166476753534</v>
+        <v>134.3723265606109</v>
       </c>
       <c r="N31" t="n">
-        <v>129.0728313123717</v>
+        <v>131.177252971917</v>
       </c>
       <c r="O31" t="n">
-        <v>119.2196507600995</v>
+        <v>121.1634247732053</v>
       </c>
       <c r="P31" t="n">
-        <v>102.013007056365</v>
+        <v>103.6762415219142</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.62851834006149</v>
+        <v>71.7800556718545</v>
       </c>
       <c r="R31" t="n">
-        <v>37.92516032026317</v>
+        <v>38.54349748702554</v>
       </c>
       <c r="S31" t="n">
-        <v>14.69925845813677</v>
+        <v>14.93891724274726</v>
       </c>
       <c r="T31" t="n">
-        <v>3.60388705024741</v>
+        <v>3.662645333380914</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04675717446869259</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91101349587286</v>
       </c>
       <c r="H32" t="n">
-        <v>19.25719494026835</v>
+        <v>19.57116696460793</v>
       </c>
       <c r="I32" t="n">
-        <v>72.49242113362098</v>
+        <v>73.67434779963848</v>
       </c>
       <c r="J32" t="n">
-        <v>159.5928572255927</v>
+        <v>162.1948816953393</v>
       </c>
       <c r="K32" t="n">
-        <v>239.188322800748</v>
+        <v>243.0880829756375</v>
       </c>
       <c r="L32" t="n">
-        <v>296.7342649126228</v>
+        <v>301.5722622499565</v>
       </c>
       <c r="M32" t="n">
-        <v>330.174044287113</v>
+        <v>335.5572485071855</v>
       </c>
       <c r="N32" t="n">
-        <v>335.5166055100142</v>
+        <v>340.9869156023343</v>
       </c>
       <c r="O32" t="n">
-        <v>316.8188164523022</v>
+        <v>321.9842751527485</v>
       </c>
       <c r="P32" t="n">
-        <v>270.397529979667</v>
+        <v>274.8061294733873</v>
       </c>
       <c r="Q32" t="n">
-        <v>203.0572840332874</v>
+        <v>206.3679586524404</v>
       </c>
       <c r="R32" t="n">
-        <v>118.1169067903461</v>
+        <v>120.0427015101236</v>
       </c>
       <c r="S32" t="n">
-        <v>42.8486102479058</v>
+        <v>43.54722003720283</v>
       </c>
       <c r="T32" t="n">
-        <v>8.231257986185739</v>
+        <v>8.365461578183448</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1528810796698287</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.006079106680871</v>
+        <v>1.022482362438012</v>
       </c>
       <c r="H33" t="n">
-        <v>9.716606109259992</v>
+        <v>9.875027026703963</v>
       </c>
       <c r="I33" t="n">
-        <v>34.63912713791596</v>
+        <v>35.20388835587017</v>
       </c>
       <c r="J33" t="n">
-        <v>95.05241244303791</v>
+        <v>96.60216039156678</v>
       </c>
       <c r="K33" t="n">
-        <v>162.4597125906563</v>
+        <v>165.1084786749136</v>
       </c>
       <c r="L33" t="n">
-        <v>202.635780428066</v>
+        <v>208.1060905203861</v>
       </c>
       <c r="M33" t="n">
-        <v>207.8710246109518</v>
+        <v>213.3413347032719</v>
       </c>
       <c r="N33" t="n">
-        <v>192.087253921875</v>
+        <v>197.557564014195</v>
       </c>
       <c r="O33" t="n">
-        <v>208.5470075</v>
+        <v>213.7962949623273</v>
       </c>
       <c r="P33" t="n">
-        <v>192.1169830994376</v>
+        <v>195.2492855080096</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.425115442281</v>
+        <v>130.5189766508593</v>
       </c>
       <c r="R33" t="n">
-        <v>62.46515716743164</v>
+        <v>63.48359790645837</v>
       </c>
       <c r="S33" t="n">
-        <v>18.68747814383108</v>
+        <v>18.99216142510956</v>
       </c>
       <c r="T33" t="n">
-        <v>4.055204820349649</v>
+        <v>4.121321452107601</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06726857647618505</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8572148652593632</v>
       </c>
       <c r="H34" t="n">
-        <v>7.499152202429723</v>
+        <v>7.621419438396889</v>
       </c>
       <c r="I34" t="n">
-        <v>25.36523055791157</v>
+        <v>25.77878885707249</v>
       </c>
       <c r="J34" t="n">
-        <v>59.632828914413</v>
+        <v>60.60509097383697</v>
       </c>
       <c r="K34" t="n">
-        <v>97.9950563875785</v>
+        <v>99.59278161831507</v>
       </c>
       <c r="L34" t="n">
-        <v>125.3999336590344</v>
+        <v>127.444471876833</v>
       </c>
       <c r="M34" t="n">
-        <v>132.2166476753534</v>
+        <v>134.3723265606109</v>
       </c>
       <c r="N34" t="n">
-        <v>129.0728313123717</v>
+        <v>131.177252971917</v>
       </c>
       <c r="O34" t="n">
-        <v>119.2196507600995</v>
+        <v>121.1634247732053</v>
       </c>
       <c r="P34" t="n">
-        <v>102.013007056365</v>
+        <v>103.6762415219142</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.62851834006149</v>
+        <v>71.7800556718545</v>
       </c>
       <c r="R34" t="n">
-        <v>37.92516032026317</v>
+        <v>38.54349748702554</v>
       </c>
       <c r="S34" t="n">
-        <v>14.69925845813677</v>
+        <v>14.93891724274726</v>
       </c>
       <c r="T34" t="n">
-        <v>3.60388705024741</v>
+        <v>3.662645333380914</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04675717446869259</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91101349587286</v>
       </c>
       <c r="H35" t="n">
-        <v>19.25719494026835</v>
+        <v>19.57116696460793</v>
       </c>
       <c r="I35" t="n">
-        <v>72.49242113362098</v>
+        <v>73.67434779963848</v>
       </c>
       <c r="J35" t="n">
-        <v>159.5928572255927</v>
+        <v>162.1948816953393</v>
       </c>
       <c r="K35" t="n">
-        <v>239.188322800748</v>
+        <v>243.0880829756375</v>
       </c>
       <c r="L35" t="n">
-        <v>296.7342649126228</v>
+        <v>301.5722622499565</v>
       </c>
       <c r="M35" t="n">
-        <v>330.174044287113</v>
+        <v>335.5572485071855</v>
       </c>
       <c r="N35" t="n">
-        <v>335.5166055100142</v>
+        <v>340.9869156023343</v>
       </c>
       <c r="O35" t="n">
-        <v>316.8188164523022</v>
+        <v>321.9842751527485</v>
       </c>
       <c r="P35" t="n">
-        <v>270.397529979667</v>
+        <v>274.8061294733873</v>
       </c>
       <c r="Q35" t="n">
-        <v>203.0572840332874</v>
+        <v>206.3679586524404</v>
       </c>
       <c r="R35" t="n">
-        <v>118.1169067903461</v>
+        <v>120.0427015101236</v>
       </c>
       <c r="S35" t="n">
-        <v>42.8486102479058</v>
+        <v>43.54722003720283</v>
       </c>
       <c r="T35" t="n">
-        <v>8.231257986185739</v>
+        <v>8.365461578183448</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1528810796698287</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.006079106680871</v>
+        <v>1.022482362438012</v>
       </c>
       <c r="H36" t="n">
-        <v>9.716606109259992</v>
+        <v>9.875027026703963</v>
       </c>
       <c r="I36" t="n">
-        <v>34.63912713791596</v>
+        <v>35.20388835587017</v>
       </c>
       <c r="J36" t="n">
-        <v>95.05241244303791</v>
+        <v>96.60216039156678</v>
       </c>
       <c r="K36" t="n">
-        <v>162.4597125906563</v>
+        <v>165.1084786749136</v>
       </c>
       <c r="L36" t="n">
-        <v>202.635780428066</v>
+        <v>207.8850678903933</v>
       </c>
       <c r="M36" t="n">
-        <v>207.8710246109518</v>
+        <v>213.3413347032719</v>
       </c>
       <c r="N36" t="n">
-        <v>192.087253921875</v>
+        <v>197.557564014195</v>
       </c>
       <c r="O36" t="n">
-        <v>208.5470075</v>
+        <v>214.01731759232</v>
       </c>
       <c r="P36" t="n">
-        <v>192.1169830994376</v>
+        <v>195.2492855080096</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.425115442281</v>
+        <v>130.5189766508593</v>
       </c>
       <c r="R36" t="n">
-        <v>62.46515716743164</v>
+        <v>63.48359790645837</v>
       </c>
       <c r="S36" t="n">
-        <v>18.68747814383108</v>
+        <v>18.99216142510956</v>
       </c>
       <c r="T36" t="n">
-        <v>4.055204820349649</v>
+        <v>4.121321452107601</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06726857647618505</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8572148652593632</v>
       </c>
       <c r="H37" t="n">
-        <v>7.499152202429723</v>
+        <v>7.621419438396889</v>
       </c>
       <c r="I37" t="n">
-        <v>25.36523055791157</v>
+        <v>25.77878885707249</v>
       </c>
       <c r="J37" t="n">
-        <v>59.632828914413</v>
+        <v>60.60509097383697</v>
       </c>
       <c r="K37" t="n">
-        <v>97.9950563875785</v>
+        <v>99.59278161831507</v>
       </c>
       <c r="L37" t="n">
-        <v>125.3999336590344</v>
+        <v>127.444471876833</v>
       </c>
       <c r="M37" t="n">
-        <v>132.2166476753534</v>
+        <v>134.3723265606109</v>
       </c>
       <c r="N37" t="n">
-        <v>129.0728313123717</v>
+        <v>131.177252971917</v>
       </c>
       <c r="O37" t="n">
-        <v>119.2196507600995</v>
+        <v>121.1634247732053</v>
       </c>
       <c r="P37" t="n">
-        <v>102.013007056365</v>
+        <v>103.6762415219142</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.62851834006149</v>
+        <v>71.7800556718545</v>
       </c>
       <c r="R37" t="n">
-        <v>37.92516032026317</v>
+        <v>38.54349748702554</v>
       </c>
       <c r="S37" t="n">
-        <v>14.69925845813677</v>
+        <v>14.93891724274726</v>
       </c>
       <c r="T37" t="n">
-        <v>3.60388705024741</v>
+        <v>3.662645333380914</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04675717446869259</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91101349587286</v>
       </c>
       <c r="H38" t="n">
-        <v>19.25719494026835</v>
+        <v>19.57116696460793</v>
       </c>
       <c r="I38" t="n">
-        <v>72.49242113362098</v>
+        <v>73.67434779963848</v>
       </c>
       <c r="J38" t="n">
-        <v>159.5928572255927</v>
+        <v>162.1948816953393</v>
       </c>
       <c r="K38" t="n">
-        <v>239.188322800748</v>
+        <v>243.0880829756375</v>
       </c>
       <c r="L38" t="n">
-        <v>296.7342649126228</v>
+        <v>301.5722622499565</v>
       </c>
       <c r="M38" t="n">
-        <v>330.174044287113</v>
+        <v>335.5572485071855</v>
       </c>
       <c r="N38" t="n">
-        <v>335.5166055100142</v>
+        <v>340.9869156023343</v>
       </c>
       <c r="O38" t="n">
-        <v>316.8188164523022</v>
+        <v>321.9842751527485</v>
       </c>
       <c r="P38" t="n">
-        <v>270.397529979667</v>
+        <v>274.8061294733873</v>
       </c>
       <c r="Q38" t="n">
-        <v>203.0572840332874</v>
+        <v>206.3679586524404</v>
       </c>
       <c r="R38" t="n">
-        <v>118.1169067903461</v>
+        <v>120.0427015101236</v>
       </c>
       <c r="S38" t="n">
-        <v>42.8486102479058</v>
+        <v>43.54722003720283</v>
       </c>
       <c r="T38" t="n">
-        <v>8.231257986185739</v>
+        <v>8.365461578183448</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1528810796698287</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.006079106680871</v>
+        <v>1.022482362438012</v>
       </c>
       <c r="H39" t="n">
-        <v>9.716606109259992</v>
+        <v>9.875027026703963</v>
       </c>
       <c r="I39" t="n">
-        <v>34.63912713791596</v>
+        <v>35.20388835587017</v>
       </c>
       <c r="J39" t="n">
-        <v>95.05241244303791</v>
+        <v>96.60216039156678</v>
       </c>
       <c r="K39" t="n">
-        <v>162.4597125906563</v>
+        <v>165.1084786749136</v>
       </c>
       <c r="L39" t="n">
-        <v>202.635780428066</v>
+        <v>207.8850678903933</v>
       </c>
       <c r="M39" t="n">
-        <v>207.8710246109518</v>
+        <v>213.3413347032719</v>
       </c>
       <c r="N39" t="n">
-        <v>192.087253921875</v>
+        <v>197.557564014195</v>
       </c>
       <c r="O39" t="n">
-        <v>208.5470075</v>
+        <v>214.01731759232</v>
       </c>
       <c r="P39" t="n">
-        <v>192.1169830994376</v>
+        <v>195.2492855080096</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.425115442281</v>
+        <v>130.5189766508593</v>
       </c>
       <c r="R39" t="n">
-        <v>62.46515716743164</v>
+        <v>63.48359790645837</v>
       </c>
       <c r="S39" t="n">
-        <v>18.68747814383108</v>
+        <v>18.99216142510956</v>
       </c>
       <c r="T39" t="n">
-        <v>4.055204820349649</v>
+        <v>4.121321452107601</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06726857647618505</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8572148652593632</v>
       </c>
       <c r="H40" t="n">
-        <v>7.499152202429723</v>
+        <v>7.621419438396889</v>
       </c>
       <c r="I40" t="n">
-        <v>25.36523055791157</v>
+        <v>25.77878885707249</v>
       </c>
       <c r="J40" t="n">
-        <v>59.632828914413</v>
+        <v>60.60509097383697</v>
       </c>
       <c r="K40" t="n">
-        <v>97.9950563875785</v>
+        <v>99.59278161831507</v>
       </c>
       <c r="L40" t="n">
-        <v>125.3999336590344</v>
+        <v>127.444471876833</v>
       </c>
       <c r="M40" t="n">
-        <v>132.2166476753534</v>
+        <v>134.3723265606109</v>
       </c>
       <c r="N40" t="n">
-        <v>129.0728313123717</v>
+        <v>131.177252971917</v>
       </c>
       <c r="O40" t="n">
-        <v>119.2196507600995</v>
+        <v>121.1634247732053</v>
       </c>
       <c r="P40" t="n">
-        <v>102.013007056365</v>
+        <v>103.6762415219142</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.62851834006149</v>
+        <v>71.7800556718545</v>
       </c>
       <c r="R40" t="n">
-        <v>37.92516032026317</v>
+        <v>38.54349748702554</v>
       </c>
       <c r="S40" t="n">
-        <v>14.69925845813677</v>
+        <v>14.93891724274726</v>
       </c>
       <c r="T40" t="n">
-        <v>3.60388705024741</v>
+        <v>3.662645333380914</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04675717446869259</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91101349587286</v>
       </c>
       <c r="H41" t="n">
-        <v>19.25719494026835</v>
+        <v>19.57116696460793</v>
       </c>
       <c r="I41" t="n">
-        <v>72.49242113362098</v>
+        <v>73.67434779963848</v>
       </c>
       <c r="J41" t="n">
-        <v>159.5928572255927</v>
+        <v>162.1948816953393</v>
       </c>
       <c r="K41" t="n">
-        <v>239.188322800748</v>
+        <v>243.0880829756375</v>
       </c>
       <c r="L41" t="n">
-        <v>296.7342649126228</v>
+        <v>301.5722622499565</v>
       </c>
       <c r="M41" t="n">
-        <v>330.174044287113</v>
+        <v>335.5572485071855</v>
       </c>
       <c r="N41" t="n">
-        <v>335.5166055100142</v>
+        <v>340.9869156023343</v>
       </c>
       <c r="O41" t="n">
-        <v>316.8188164523022</v>
+        <v>321.9842751527485</v>
       </c>
       <c r="P41" t="n">
-        <v>270.397529979667</v>
+        <v>274.8061294733873</v>
       </c>
       <c r="Q41" t="n">
-        <v>203.0572840332874</v>
+        <v>206.3679586524404</v>
       </c>
       <c r="R41" t="n">
-        <v>118.1169067903461</v>
+        <v>120.0427015101236</v>
       </c>
       <c r="S41" t="n">
-        <v>42.8486102479058</v>
+        <v>43.54722003720283</v>
       </c>
       <c r="T41" t="n">
-        <v>8.231257986185739</v>
+        <v>8.365461578183448</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1528810796698287</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.006079106680871</v>
+        <v>1.022482362438012</v>
       </c>
       <c r="H42" t="n">
-        <v>9.716606109259992</v>
+        <v>9.875027026703963</v>
       </c>
       <c r="I42" t="n">
-        <v>34.63912713791596</v>
+        <v>35.20388835587017</v>
       </c>
       <c r="J42" t="n">
-        <v>95.05241244303791</v>
+        <v>96.60216039156678</v>
       </c>
       <c r="K42" t="n">
-        <v>162.4597125906563</v>
+        <v>165.1084786749136</v>
       </c>
       <c r="L42" t="n">
-        <v>202.635780428066</v>
+        <v>208.1060905203861</v>
       </c>
       <c r="M42" t="n">
-        <v>207.8710246109518</v>
+        <v>213.3413347032719</v>
       </c>
       <c r="N42" t="n">
-        <v>192.087253921875</v>
+        <v>197.557564014195</v>
       </c>
       <c r="O42" t="n">
-        <v>208.5470075</v>
+        <v>213.7962949623273</v>
       </c>
       <c r="P42" t="n">
-        <v>192.1169830994376</v>
+        <v>195.2492855080096</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.425115442281</v>
+        <v>130.5189766508593</v>
       </c>
       <c r="R42" t="n">
-        <v>62.46515716743164</v>
+        <v>63.48359790645837</v>
       </c>
       <c r="S42" t="n">
-        <v>18.68747814383108</v>
+        <v>18.99216142510956</v>
       </c>
       <c r="T42" t="n">
-        <v>4.055204820349649</v>
+        <v>4.121321452107601</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06726857647618505</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8572148652593632</v>
       </c>
       <c r="H43" t="n">
-        <v>7.499152202429723</v>
+        <v>7.621419438396889</v>
       </c>
       <c r="I43" t="n">
-        <v>25.36523055791157</v>
+        <v>25.77878885707249</v>
       </c>
       <c r="J43" t="n">
-        <v>59.632828914413</v>
+        <v>60.60509097383697</v>
       </c>
       <c r="K43" t="n">
-        <v>97.9950563875785</v>
+        <v>99.59278161831507</v>
       </c>
       <c r="L43" t="n">
-        <v>125.3999336590344</v>
+        <v>127.444471876833</v>
       </c>
       <c r="M43" t="n">
-        <v>132.2166476753534</v>
+        <v>134.3723265606109</v>
       </c>
       <c r="N43" t="n">
-        <v>129.0728313123717</v>
+        <v>131.177252971917</v>
       </c>
       <c r="O43" t="n">
-        <v>119.2196507600995</v>
+        <v>121.1634247732053</v>
       </c>
       <c r="P43" t="n">
-        <v>102.013007056365</v>
+        <v>103.6762415219142</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.62851834006149</v>
+        <v>71.7800556718545</v>
       </c>
       <c r="R43" t="n">
-        <v>37.92516032026317</v>
+        <v>38.54349748702554</v>
       </c>
       <c r="S43" t="n">
-        <v>14.69925845813677</v>
+        <v>14.93891724274726</v>
       </c>
       <c r="T43" t="n">
-        <v>3.60388705024741</v>
+        <v>3.662645333380914</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04675717446869259</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91101349587286</v>
       </c>
       <c r="H44" t="n">
-        <v>19.25719494026835</v>
+        <v>19.57116696460793</v>
       </c>
       <c r="I44" t="n">
-        <v>72.49242113362098</v>
+        <v>73.67434779963848</v>
       </c>
       <c r="J44" t="n">
-        <v>159.5928572255927</v>
+        <v>162.1948816953393</v>
       </c>
       <c r="K44" t="n">
-        <v>239.188322800748</v>
+        <v>243.0880829756375</v>
       </c>
       <c r="L44" t="n">
-        <v>296.7342649126228</v>
+        <v>301.5722622499565</v>
       </c>
       <c r="M44" t="n">
-        <v>330.174044287113</v>
+        <v>335.5572485071855</v>
       </c>
       <c r="N44" t="n">
-        <v>335.5166055100142</v>
+        <v>340.9869156023343</v>
       </c>
       <c r="O44" t="n">
-        <v>316.8188164523022</v>
+        <v>321.9842751527485</v>
       </c>
       <c r="P44" t="n">
-        <v>270.397529979667</v>
+        <v>274.8061294733873</v>
       </c>
       <c r="Q44" t="n">
-        <v>203.0572840332874</v>
+        <v>206.3679586524404</v>
       </c>
       <c r="R44" t="n">
-        <v>118.1169067903461</v>
+        <v>120.0427015101236</v>
       </c>
       <c r="S44" t="n">
-        <v>42.8486102479058</v>
+        <v>43.54722003720283</v>
       </c>
       <c r="T44" t="n">
-        <v>8.231257986185739</v>
+        <v>8.365461578183448</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1528810796698287</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.006079106680871</v>
+        <v>1.022482362438012</v>
       </c>
       <c r="H45" t="n">
-        <v>9.716606109259992</v>
+        <v>9.875027026703963</v>
       </c>
       <c r="I45" t="n">
-        <v>34.63912713791596</v>
+        <v>35.20388835587017</v>
       </c>
       <c r="J45" t="n">
-        <v>95.05241244303791</v>
+        <v>96.60216039156678</v>
       </c>
       <c r="K45" t="n">
-        <v>162.4597125906563</v>
+        <v>165.1084786749136</v>
       </c>
       <c r="L45" t="n">
-        <v>202.635780428066</v>
+        <v>207.8850678903933</v>
       </c>
       <c r="M45" t="n">
-        <v>207.8710246109518</v>
+        <v>213.3413347032719</v>
       </c>
       <c r="N45" t="n">
-        <v>192.087253921875</v>
+        <v>197.557564014195</v>
       </c>
       <c r="O45" t="n">
-        <v>208.5470075</v>
+        <v>214.01731759232</v>
       </c>
       <c r="P45" t="n">
-        <v>192.1169830994376</v>
+        <v>195.2492855080096</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.425115442281</v>
+        <v>130.5189766508593</v>
       </c>
       <c r="R45" t="n">
-        <v>62.46515716743164</v>
+        <v>63.48359790645837</v>
       </c>
       <c r="S45" t="n">
-        <v>18.68747814383108</v>
+        <v>18.99216142510956</v>
       </c>
       <c r="T45" t="n">
-        <v>4.055204820349649</v>
+        <v>4.121321452107601</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06726857647618505</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8572148652593632</v>
       </c>
       <c r="H46" t="n">
-        <v>7.499152202429723</v>
+        <v>7.621419438396889</v>
       </c>
       <c r="I46" t="n">
-        <v>25.36523055791157</v>
+        <v>25.77878885707249</v>
       </c>
       <c r="J46" t="n">
-        <v>59.632828914413</v>
+        <v>60.60509097383697</v>
       </c>
       <c r="K46" t="n">
-        <v>97.9950563875785</v>
+        <v>99.59278161831507</v>
       </c>
       <c r="L46" t="n">
-        <v>125.3999336590344</v>
+        <v>127.444471876833</v>
       </c>
       <c r="M46" t="n">
-        <v>132.2166476753534</v>
+        <v>134.3723265606109</v>
       </c>
       <c r="N46" t="n">
-        <v>129.0728313123717</v>
+        <v>131.177252971917</v>
       </c>
       <c r="O46" t="n">
-        <v>119.2196507600995</v>
+        <v>121.1634247732053</v>
       </c>
       <c r="P46" t="n">
-        <v>102.013007056365</v>
+        <v>103.6762415219142</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.62851834006149</v>
+        <v>71.7800556718545</v>
       </c>
       <c r="R46" t="n">
-        <v>37.92516032026317</v>
+        <v>38.54349748702554</v>
       </c>
       <c r="S46" t="n">
-        <v>14.69925845813677</v>
+        <v>14.93891724274726</v>
       </c>
       <c r="T46" t="n">
-        <v>3.60388705024741</v>
+        <v>3.662645333380914</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04675717446869259</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36363,16 +36363,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>5.249287462327321</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.249287462327323</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>5.249287462327323</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>5.249287462327323</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36843,13 +36843,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>5.249287462327321</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>5.249287462327323</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>5.249287462327323</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>5.470310092320051</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>5.249287462327321</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37314,16 +37314,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>5.24928746232733</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>5.24928746232733</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>5.24928746232733</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>5.24928746232733</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>5.24928746232733</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>5.249287462327332</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>5.24928746232733</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>5.24928746232733</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>5.470310092320062</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
